--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641641.2565265965</v>
+        <v>-643938.1203420837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5648925.111355016</v>
+        <v>5648925.111355023</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -671,16 +671,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>55.54022196058099</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7.603382851973697</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.98213474053743</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.5257699022974</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>196.9826481283071</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>25.17354161800005</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>90.69838590607203</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.93468111259996</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>86.07862126783411</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>114.8694290533969</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>202.9638703150329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.71153510303044</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>188.6408111381852</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U13" t="n">
         <v>286.2224884875777</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>47.12656163038532</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710099</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>101.1457794333322</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I16" t="n">
         <v>102.2242758664309</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>97.71153510303044</v>
       </c>
       <c r="S16" t="n">
-        <v>9.272851559634319</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T16" t="n">
         <v>220.3832213634118</v>
@@ -1822,7 +1822,7 @@
         <v>286.2224884875777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.065656655657</v>
       </c>
       <c r="I17" t="n">
-        <v>58.35836677281043</v>
+        <v>58.35836677280807</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>193.1717904191954</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>10.2765437459859</v>
       </c>
       <c r="U19" t="n">
         <v>286.2224884875777</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>36.4952628847301</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2290,19 +2290,19 @@
         <v>193.1717904191954</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U22" t="n">
         <v>286.2224884875777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>208.8539908726605</v>
+        <v>50.0139099306176</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2369,7 +2369,7 @@
         <v>119.106884948407</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8234429485686</v>
+        <v>205.8234429485682</v>
       </c>
       <c r="U23" t="n">
         <v>251.0299949913899</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.2210634283829</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2224884875777</v>
+        <v>182.2851823754185</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>53.63625487352707</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>166.2210634283829</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>97.71153510303044</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>25.48685332648972</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U28" t="n">
-        <v>183.8393464040303</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722852</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>167.4321304976002</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>42.88890789367493</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722855</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.0998663845605</v>
+        <v>155.0998663845606</v>
       </c>
       <c r="C34" t="n">
-        <v>142.5147073012511</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.8833592208356</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>121.7018488491924</v>
+        <v>40.18084099305217</v>
       </c>
       <c r="F34" t="n">
-        <v>120.6889342255545</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>141.4889496310062</v>
       </c>
       <c r="H34" t="n">
-        <v>36.97172521507991</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4396766218187</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>195.6511075660352</v>
       </c>
       <c r="U34" t="n">
-        <v>261.4903746902009</v>
+        <v>261.490374690201</v>
       </c>
       <c r="V34" t="n">
-        <v>227.4055295264512</v>
+        <v>227.4055295264513</v>
       </c>
       <c r="W34" t="n">
-        <v>261.7908845392142</v>
+        <v>261.7908845392143</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9775415916604</v>
+        <v>200.9775415916605</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.852539554718</v>
+        <v>193.8525395547181</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>326.9273306539426</v>
       </c>
       <c r="C35" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D35" t="n">
         <v>298.876530611145</v>
@@ -3284,7 +3284,7 @@
         <v>243.259145646119</v>
       </c>
       <c r="I35" t="n">
-        <v>2.55185576327009</v>
+        <v>2.551855763270055</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.30037393886906</v>
+        <v>63.30037393886903</v>
       </c>
       <c r="T35" t="n">
         <v>150.0169319390306</v>
@@ -3332,7 +3332,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D37" t="n">
-        <v>92.80896200867437</v>
+        <v>92.80896200867434</v>
       </c>
       <c r="E37" t="n">
-        <v>90.62745163703119</v>
+        <v>90.62745163703116</v>
       </c>
       <c r="F37" t="n">
-        <v>89.61453701339326</v>
+        <v>89.61453701339323</v>
       </c>
       <c r="G37" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H37" t="n">
-        <v>90.68449986504513</v>
+        <v>90.6844998650451</v>
       </c>
       <c r="I37" t="n">
-        <v>46.41776485689294</v>
+        <v>46.41776485689292</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90502409349246</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3652794096574</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T37" t="n">
         <v>164.5767103538738</v>
@@ -3487,7 +3487,7 @@
         <v>230.716487327053</v>
       </c>
       <c r="X37" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y37" t="n">
         <v>162.7781423425568</v>
@@ -3521,7 +3521,7 @@
         <v>243.2591456461189</v>
       </c>
       <c r="I38" t="n">
-        <v>2.551855763270062</v>
+        <v>2.551855763270048</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.30037393886901</v>
+        <v>63.30037393886903</v>
       </c>
       <c r="T38" t="n">
-        <v>150.0169319390305</v>
+        <v>150.0169319390306</v>
       </c>
       <c r="U38" t="n">
-        <v>195.2234839818518</v>
+        <v>195.2234839818519</v>
       </c>
       <c r="V38" t="n">
         <v>271.9457474605969</v>
@@ -3664,22 +3664,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D40" t="n">
-        <v>92.80896200867431</v>
+        <v>92.80896200867434</v>
       </c>
       <c r="E40" t="n">
-        <v>90.62745163703113</v>
+        <v>90.62745163703116</v>
       </c>
       <c r="F40" t="n">
-        <v>89.6145370133932</v>
+        <v>89.61453701339323</v>
       </c>
       <c r="G40" t="n">
-        <v>110.4145524188448</v>
+        <v>110.4145524188449</v>
       </c>
       <c r="H40" t="n">
-        <v>90.68449986504507</v>
+        <v>90.6844998650451</v>
       </c>
       <c r="I40" t="n">
-        <v>46.41776485689289</v>
+        <v>46.41776485689292</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9050240934924</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S40" t="n">
         <v>137.3652794096573</v>
@@ -3715,7 +3715,7 @@
         <v>164.5767103538738</v>
       </c>
       <c r="U40" t="n">
-        <v>230.4159774780396</v>
+        <v>230.4159774780397</v>
       </c>
       <c r="V40" t="n">
         <v>196.33113231429</v>
@@ -3727,7 +3727,7 @@
         <v>169.9031443794991</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.7781423425567</v>
+        <v>162.7781423425568</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>243.2591456461189</v>
       </c>
       <c r="I41" t="n">
-        <v>2.551855763270034</v>
+        <v>2.551855763270048</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.300373938869</v>
+        <v>63.30037393886903</v>
       </c>
       <c r="T41" t="n">
-        <v>150.0169319390305</v>
+        <v>150.0169319390306</v>
       </c>
       <c r="U41" t="n">
-        <v>195.2234839818518</v>
+        <v>195.2234839818519</v>
       </c>
       <c r="V41" t="n">
         <v>271.9457474605969</v>
@@ -3901,22 +3901,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D43" t="n">
-        <v>92.80896200867431</v>
+        <v>92.80896200867434</v>
       </c>
       <c r="E43" t="n">
-        <v>90.62745163703113</v>
+        <v>90.62745163703116</v>
       </c>
       <c r="F43" t="n">
-        <v>89.6145370133932</v>
+        <v>89.61453701339323</v>
       </c>
       <c r="G43" t="n">
-        <v>110.4145524188448</v>
+        <v>110.4145524188449</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68449986504507</v>
+        <v>90.6844998650451</v>
       </c>
       <c r="I43" t="n">
-        <v>46.41776485689289</v>
+        <v>46.41776485689292</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9050240934924</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S43" t="n">
         <v>137.3652794096573</v>
@@ -3952,7 +3952,7 @@
         <v>164.5767103538738</v>
       </c>
       <c r="U43" t="n">
-        <v>230.4159774780396</v>
+        <v>230.4159774780397</v>
       </c>
       <c r="V43" t="n">
         <v>196.33113231429</v>
@@ -3964,7 +3964,7 @@
         <v>169.9031443794991</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.7781423425567</v>
+        <v>162.7781423425568</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C44" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D44" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E44" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F44" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G44" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H44" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I44" t="n">
-        <v>2.551855763270062</v>
+        <v>2.551855763270076</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.30037393886903</v>
+        <v>63.30037393886904</v>
       </c>
       <c r="T44" t="n">
         <v>150.0169319390306</v>
@@ -4043,7 +4043,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="45">
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513.1241971476163</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>513.1241971476163</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>513.1241971476163</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E2" t="n">
-        <v>513.1241971476163</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>756.5729737917163</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>756.5729737917163</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W2" t="n">
-        <v>513.1241971476163</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X2" t="n">
-        <v>513.1241971476163</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y2" t="n">
-        <v>513.1241971476163</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>552.3930418464681</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="C3" t="n">
-        <v>377.9400125653411</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="D3" t="n">
-        <v>229.0056029040899</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E3" t="n">
-        <v>69.76814789863437</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F3" t="n">
-        <v>69.76814789863437</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
-        <v>69.76814789863437</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>69.76814789863437</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,16 +4416,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9402162153863</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9402162153863</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9402162153863</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>804.9402162153863</v>
       </c>
       <c r="X3" t="n">
-        <v>720.6083788665362</v>
+        <v>597.0887160098534</v>
       </c>
       <c r="Y3" t="n">
-        <v>720.6083788665362</v>
+        <v>597.0887160098534</v>
       </c>
     </row>
     <row r="4">
@@ -4519,13 +4519,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>777.1547729109448</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533.6469426057913</v>
+        <v>286.10283626238</v>
       </c>
       <c r="C6" t="n">
-        <v>359.1939133246643</v>
+        <v>111.649806981253</v>
       </c>
       <c r="D6" t="n">
-        <v>359.1939133246643</v>
+        <v>111.649806981253</v>
       </c>
       <c r="E6" t="n">
-        <v>359.1939133246643</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>359.1939133246643</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>220.4630879072798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>107.0939523148592</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>533.6469426057913</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X6" t="n">
-        <v>533.6469426057913</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y6" t="n">
-        <v>533.6469426057913</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="7">
@@ -4759,10 +4759,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>725.726105804592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>725.726105804592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>725.726105804592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>725.726105804592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>612.875320962331</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C9" t="n">
-        <v>438.4222916812039</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D9" t="n">
-        <v>438.4222916812039</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>848.0274291940736</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>848.0274291940736</v>
+        <v>657.8736156442967</v>
       </c>
       <c r="V9" t="n">
-        <v>612.875320962331</v>
+        <v>422.721507412554</v>
       </c>
       <c r="W9" t="n">
-        <v>612.875320962331</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="X9" t="n">
-        <v>612.875320962331</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y9" t="n">
-        <v>612.875320962331</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C11" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E11" t="n">
         <v>1283.784722140266</v>
@@ -5039,52 +5039,52 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J11" t="n">
-        <v>406.3610229042847</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K11" t="n">
-        <v>1006.267803593997</v>
+        <v>1015.868804260582</v>
       </c>
       <c r="L11" t="n">
-        <v>1802.781839968049</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M11" t="n">
-        <v>2260.645324573583</v>
+        <v>2715.264723398073</v>
       </c>
       <c r="N11" t="n">
-        <v>3163.504782588268</v>
+        <v>3185.150726244894</v>
       </c>
       <c r="O11" t="n">
-        <v>3970.861728880871</v>
+        <v>3992.507672537497</v>
       </c>
       <c r="P11" t="n">
-        <v>4303.667099681198</v>
+        <v>4578.918196108757</v>
       </c>
       <c r="Q11" t="n">
-        <v>4715.609167289134</v>
+        <v>4780.668422963387</v>
       </c>
       <c r="R11" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S11" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U11" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V11" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856801</v>
       </c>
       <c r="W11" t="n">
         <v>3547.006120586686</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J12" t="n">
-        <v>168.145722662567</v>
+        <v>237.0713536212383</v>
       </c>
       <c r="K12" t="n">
-        <v>369.1778315108234</v>
+        <v>699.9240471119474</v>
       </c>
       <c r="L12" t="n">
-        <v>685.8128519155887</v>
+        <v>1016.559067516713</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.667854191144</v>
+        <v>1405.414069792268</v>
       </c>
       <c r="N12" t="n">
-        <v>1488.223336218509</v>
+        <v>1818.969551819633</v>
       </c>
       <c r="O12" t="n">
         <v>2175.072228054497</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.9915393507706</v>
+        <v>563.2758557379373</v>
       </c>
       <c r="C13" t="n">
-        <v>391.0553564228637</v>
+        <v>394.3396728100304</v>
       </c>
       <c r="D13" t="n">
-        <v>391.0553564228637</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="E13" t="n">
-        <v>243.1422628404706</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="F13" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="G13" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="H13" t="n">
         <v>96.25231534256025</v>
@@ -5206,7 +5206,7 @@
         <v>597.05835718242</v>
       </c>
       <c r="M13" t="n">
-        <v>910.9143388153275</v>
+        <v>910.9143388153273</v>
       </c>
       <c r="N13" t="n">
         <v>1222.742143129469</v>
@@ -5215,34 +5215,34 @@
         <v>1494.749295691747</v>
       </c>
       <c r="P13" t="n">
-        <v>1703.977723167557</v>
+        <v>1703.977723167556</v>
       </c>
       <c r="Q13" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035739</v>
       </c>
       <c r="R13" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S13" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="T13" t="n">
-        <v>1574.855287158785</v>
+        <v>1444.093726221151</v>
       </c>
       <c r="U13" t="n">
-        <v>1285.741662423858</v>
+        <v>1154.980101486224</v>
       </c>
       <c r="V13" t="n">
-        <v>1031.057174217971</v>
+        <v>900.2956132803373</v>
       </c>
       <c r="W13" t="n">
-        <v>741.6400041810103</v>
+        <v>610.8784432433768</v>
       </c>
       <c r="X13" t="n">
-        <v>741.6400041810103</v>
+        <v>563.2758557379373</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.6400041810103</v>
+        <v>563.2758557379373</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2396.801190285675</v>
+        <v>2396.801190285671</v>
       </c>
       <c r="C14" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.838673345259</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E14" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F14" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506574</v>
       </c>
       <c r="G14" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H14" t="n">
-        <v>155.200160567619</v>
+        <v>155.2001605676185</v>
       </c>
       <c r="I14" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J14" t="n">
         <v>415.9620235708705</v>
       </c>
       <c r="K14" t="n">
-        <v>1015.868804260582</v>
+        <v>694.9648458151294</v>
       </c>
       <c r="L14" t="n">
-        <v>1812.382840634635</v>
+        <v>1491.478882189182</v>
       </c>
       <c r="M14" t="n">
-        <v>2375.038058651682</v>
+        <v>2394.36076495262</v>
       </c>
       <c r="N14" t="n">
-        <v>2844.924061498503</v>
+        <v>3297.220222967305</v>
       </c>
       <c r="O14" t="n">
-        <v>3652.281007791105</v>
+        <v>4104.577169259908</v>
       </c>
       <c r="P14" t="n">
-        <v>4303.6670996812</v>
+        <v>4513.858940434504</v>
       </c>
       <c r="Q14" t="n">
-        <v>4715.609167289136</v>
+        <v>4715.609167289134</v>
       </c>
       <c r="R14" t="n">
-        <v>4812.615767128014</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S14" t="n">
-        <v>4692.305782331644</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T14" t="n">
-        <v>4484.403314706828</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U14" t="n">
-        <v>4230.837663200373</v>
+        <v>4230.837663200369</v>
       </c>
       <c r="V14" t="n">
-        <v>3899.774775856802</v>
+        <v>3899.774775856798</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.006120586688</v>
+        <v>3547.006120586684</v>
       </c>
       <c r="X14" t="n">
-        <v>3173.540362325608</v>
+        <v>3173.540362325604</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.401030349797</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>971.6630058531883</v>
+        <v>971.6630058531881</v>
       </c>
       <c r="C15" t="n">
-        <v>797.2099765720614</v>
+        <v>797.2099765720611</v>
       </c>
       <c r="D15" t="n">
-        <v>648.2755669108101</v>
+        <v>648.2755669108099</v>
       </c>
       <c r="E15" t="n">
-        <v>489.0381119053545</v>
+        <v>489.0381119053544</v>
       </c>
       <c r="F15" t="n">
-        <v>342.5035539322395</v>
+        <v>342.5035539322394</v>
       </c>
       <c r="G15" t="n">
-        <v>205.9052016818158</v>
+        <v>205.9052016818157</v>
       </c>
       <c r="H15" t="n">
         <v>113.1312674650428</v>
       </c>
       <c r="I15" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J15" t="n">
-        <v>168.1457226625671</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K15" t="n">
-        <v>369.1778315108234</v>
+        <v>494.0079564978281</v>
       </c>
       <c r="L15" t="n">
-        <v>685.8128519155887</v>
+        <v>810.6429769025933</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.667854191144</v>
+        <v>1199.497979178148</v>
       </c>
       <c r="N15" t="n">
-        <v>1488.223336218509</v>
+        <v>1613.053461205513</v>
       </c>
       <c r="O15" t="n">
-        <v>1844.326012453373</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P15" t="n">
         <v>2264.17581091941</v>
@@ -5391,7 +5391,7 @@
         <v>2044.879606803687</v>
       </c>
       <c r="V15" t="n">
-        <v>1809.727498571945</v>
+        <v>1809.727498571944</v>
       </c>
       <c r="W15" t="n">
         <v>1555.490141843743</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>518.5619819923292</v>
+        <v>449.6473316802837</v>
       </c>
       <c r="C16" t="n">
-        <v>349.6257990644222</v>
+        <v>449.6473316802837</v>
       </c>
       <c r="D16" t="n">
-        <v>199.5091596520865</v>
+        <v>449.6473316802837</v>
       </c>
       <c r="E16" t="n">
-        <v>199.5091596520865</v>
+        <v>449.6473316802837</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5091596520865</v>
+        <v>449.6473316802837</v>
       </c>
       <c r="G16" t="n">
-        <v>199.5091596520865</v>
+        <v>347.4798777072209</v>
       </c>
       <c r="H16" t="n">
         <v>199.5091596520865</v>
       </c>
       <c r="I16" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J16" t="n">
         <v>127.7084527208552</v>
@@ -5443,10 +5443,10 @@
         <v>597.0583571824201</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9143388153277</v>
+        <v>910.9143388153276</v>
       </c>
       <c r="N16" t="n">
-        <v>1222.742143129469</v>
+        <v>1222.74214312947</v>
       </c>
       <c r="O16" t="n">
         <v>1494.749295691747</v>
@@ -5455,31 +5455,31 @@
         <v>1703.977723167557</v>
       </c>
       <c r="Q16" t="n">
-        <v>1765.401561035743</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.401561035743</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S16" t="n">
-        <v>1756.03504430884</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T16" t="n">
-        <v>1533.425729800343</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="U16" t="n">
-        <v>1244.312105065416</v>
+        <v>959.8570808607747</v>
       </c>
       <c r="V16" t="n">
-        <v>989.6276168595294</v>
+        <v>959.8570808607744</v>
       </c>
       <c r="W16" t="n">
-        <v>700.2104468225689</v>
+        <v>670.4399108238139</v>
       </c>
       <c r="X16" t="n">
-        <v>700.2104468225689</v>
+        <v>670.4399108238139</v>
       </c>
       <c r="Y16" t="n">
-        <v>700.2104468225689</v>
+        <v>449.6473316802837</v>
       </c>
     </row>
     <row r="17">
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2396.801190285675</v>
+        <v>2396.801190285674</v>
       </c>
       <c r="C17" t="n">
-        <v>2027.838673345263</v>
+        <v>2027.838673345262</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.572974738513</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.784722140269</v>
+        <v>1283.784722140266</v>
       </c>
       <c r="F17" t="n">
-        <v>872.7988173506612</v>
+        <v>872.798817350659</v>
       </c>
       <c r="G17" t="n">
-        <v>457.2866824420223</v>
+        <v>457.2866824420199</v>
       </c>
       <c r="H17" t="n">
-        <v>155.2001605676213</v>
+        <v>155.2001605676189</v>
       </c>
       <c r="I17" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J17" t="n">
-        <v>415.9620235708705</v>
+        <v>248.5563745505175</v>
       </c>
       <c r="K17" t="n">
-        <v>1015.868804260582</v>
+        <v>527.5591967947763</v>
       </c>
       <c r="L17" t="n">
-        <v>1812.382840634635</v>
+        <v>1324.073233168829</v>
       </c>
       <c r="M17" t="n">
-        <v>2270.246325240169</v>
+        <v>2226.955115932267</v>
       </c>
       <c r="N17" t="n">
-        <v>3173.105783254854</v>
+        <v>3129.814573946952</v>
       </c>
       <c r="O17" t="n">
-        <v>3717.340263465358</v>
+        <v>3937.171520239555</v>
       </c>
       <c r="P17" t="n">
-        <v>4368.726355355453</v>
+        <v>4303.667099681199</v>
       </c>
       <c r="Q17" t="n">
-        <v>4780.668422963389</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R17" t="n">
-        <v>4812.615767128014</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.305782331644</v>
+        <v>4692.305782331643</v>
       </c>
       <c r="T17" t="n">
         <v>4484.403314706827</v>
@@ -5552,13 +5552,13 @@
         <v>3899.774775856801</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.006120586688</v>
+        <v>3547.006120586687</v>
       </c>
       <c r="X17" t="n">
-        <v>3173.540362325608</v>
+        <v>3173.540362325607</v>
       </c>
       <c r="Y17" t="n">
-        <v>2783.401030349797</v>
+        <v>2783.401030349796</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I18" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J18" t="n">
-        <v>168.1457226625671</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K18" t="n">
-        <v>369.1778315108234</v>
+        <v>494.0079564978281</v>
       </c>
       <c r="L18" t="n">
-        <v>685.8128519155887</v>
+        <v>810.6429769025933</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.667854191144</v>
+        <v>1199.497979178148</v>
       </c>
       <c r="N18" t="n">
-        <v>1488.223336218509</v>
+        <v>1613.053461205513</v>
       </c>
       <c r="O18" t="n">
-        <v>1890.40345882266</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P18" t="n">
-        <v>2472.152325777901</v>
+        <v>2235.626863442081</v>
       </c>
       <c r="Q18" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132565</v>
       </c>
       <c r="R18" t="n">
         <v>2600.361752854265</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.9785098374512</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="C19" t="n">
-        <v>411.0423269095443</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="D19" t="n">
-        <v>411.0423269095443</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="E19" t="n">
-        <v>411.0423269095443</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G19" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H19" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I19" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J19" t="n">
         <v>127.7084527208552</v>
@@ -5689,34 +5689,34 @@
         <v>1494.749295691747</v>
       </c>
       <c r="P19" t="n">
-        <v>1703.977723167556</v>
+        <v>1703.977723167557</v>
       </c>
       <c r="Q19" t="n">
-        <v>1765.401561035739</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="R19" t="n">
-        <v>1765.401561035739</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="S19" t="n">
-        <v>1570.278540410289</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T19" t="n">
-        <v>1570.278540410289</v>
+        <v>1559.898193192122</v>
       </c>
       <c r="U19" t="n">
-        <v>1281.164915675362</v>
+        <v>1270.784568457195</v>
       </c>
       <c r="V19" t="n">
-        <v>1026.480427469475</v>
+        <v>1016.100080251308</v>
       </c>
       <c r="W19" t="n">
-        <v>989.6165255657077</v>
+        <v>726.6829102143474</v>
       </c>
       <c r="X19" t="n">
-        <v>761.6269746676903</v>
+        <v>498.6933593163301</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.6269746676909</v>
+        <v>277.9007801728</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.801190285675</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C20" t="n">
-        <v>2027.838673345263</v>
+        <v>2027.838673345261</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.572974738513</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E20" t="n">
-        <v>1283.784722140269</v>
+        <v>1283.784722140266</v>
       </c>
       <c r="F20" t="n">
-        <v>872.7988173506609</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G20" t="n">
-        <v>457.286682442022</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H20" t="n">
-        <v>155.200160567619</v>
+        <v>155.2001605676189</v>
       </c>
       <c r="I20" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J20" t="n">
         <v>248.5563745505175</v>
       </c>
       <c r="K20" t="n">
-        <v>848.4631552402294</v>
+        <v>527.5591967947763</v>
       </c>
       <c r="L20" t="n">
-        <v>1644.977191614282</v>
+        <v>1324.073233168829</v>
       </c>
       <c r="M20" t="n">
-        <v>2535.896421001144</v>
+        <v>2226.955115932267</v>
       </c>
       <c r="N20" t="n">
-        <v>3438.755879015829</v>
+        <v>3129.814573946952</v>
       </c>
       <c r="O20" t="n">
-        <v>4246.112825308432</v>
+        <v>3937.171520239555</v>
       </c>
       <c r="P20" t="n">
-        <v>4578.918196108759</v>
+        <v>4513.858940434504</v>
       </c>
       <c r="Q20" t="n">
-        <v>4780.668422963389</v>
+        <v>4715.609167289134</v>
       </c>
       <c r="R20" t="n">
-        <v>4812.615767128014</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S20" t="n">
-        <v>4692.305782331643</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T20" t="n">
-        <v>4484.403314706827</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U20" t="n">
-        <v>4230.837663200374</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V20" t="n">
-        <v>3899.774775856803</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.006120586689</v>
+        <v>3547.006120586686</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.540362325609</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.401030349797</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>971.6630058531883</v>
+        <v>971.6630058531881</v>
       </c>
       <c r="C21" t="n">
-        <v>797.2099765720614</v>
+        <v>797.2099765720611</v>
       </c>
       <c r="D21" t="n">
-        <v>648.2755669108101</v>
+        <v>648.2755669108099</v>
       </c>
       <c r="E21" t="n">
-        <v>489.0381119053545</v>
+        <v>489.0381119053544</v>
       </c>
       <c r="F21" t="n">
-        <v>342.5035539322395</v>
+        <v>342.5035539322394</v>
       </c>
       <c r="G21" t="n">
-        <v>205.9052016818158</v>
+        <v>205.9052016818157</v>
       </c>
       <c r="H21" t="n">
         <v>113.1312674650428</v>
       </c>
       <c r="I21" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J21" t="n">
-        <v>168.1457226625671</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K21" t="n">
-        <v>369.1778315108234</v>
+        <v>494.0079564978281</v>
       </c>
       <c r="L21" t="n">
-        <v>685.8128519155887</v>
+        <v>810.6429769025933</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.667854191144</v>
+        <v>1199.497979178148</v>
       </c>
       <c r="N21" t="n">
-        <v>1488.223336218509</v>
+        <v>1613.053461205513</v>
       </c>
       <c r="O21" t="n">
-        <v>1890.40345882266</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P21" t="n">
-        <v>2472.152325777901</v>
+        <v>2235.626863442081</v>
       </c>
       <c r="Q21" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R21" t="n">
         <v>2600.361752854265</v>
@@ -5865,7 +5865,7 @@
         <v>2044.879606803687</v>
       </c>
       <c r="V21" t="n">
-        <v>1809.727498571945</v>
+        <v>1809.727498571944</v>
       </c>
       <c r="W21" t="n">
         <v>1555.490141843743</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.9915393507707</v>
+        <v>243.1422628404706</v>
       </c>
       <c r="C22" t="n">
-        <v>391.0553564228638</v>
+        <v>243.1422628404706</v>
       </c>
       <c r="D22" t="n">
-        <v>391.0553564228638</v>
+        <v>243.1422628404706</v>
       </c>
       <c r="E22" t="n">
-        <v>243.1422628404707</v>
+        <v>243.1422628404706</v>
       </c>
       <c r="F22" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G22" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H22" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I22" t="n">
-        <v>96.25231534256029</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J22" t="n">
         <v>127.7084527208552</v>
@@ -5938,22 +5938,22 @@
         <v>1570.27854041029</v>
       </c>
       <c r="T22" t="n">
-        <v>1570.27854041029</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U22" t="n">
-        <v>1281.164915675363</v>
+        <v>1058.555601166866</v>
       </c>
       <c r="V22" t="n">
-        <v>1281.164915675363</v>
+        <v>803.871112960979</v>
       </c>
       <c r="W22" t="n">
-        <v>991.7477456384022</v>
+        <v>514.4539429240184</v>
       </c>
       <c r="X22" t="n">
-        <v>780.7841184943009</v>
+        <v>463.9348419840007</v>
       </c>
       <c r="Y22" t="n">
-        <v>559.9915393507707</v>
+        <v>243.1422628404706</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C23" t="n">
         <v>2027.838673345261</v>
@@ -5978,7 +5978,7 @@
         <v>872.7988173506587</v>
       </c>
       <c r="G23" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420199</v>
       </c>
       <c r="H23" t="n">
         <v>155.2001605676189</v>
@@ -5996,43 +5996,43 @@
         <v>1812.382840634635</v>
       </c>
       <c r="M23" t="n">
-        <v>2270.246325240169</v>
+        <v>2375.03805865168</v>
       </c>
       <c r="N23" t="n">
-        <v>3173.105783254854</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O23" t="n">
-        <v>3927.532104218662</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P23" t="n">
-        <v>4578.918196108757</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q23" t="n">
-        <v>4780.668422963387</v>
+        <v>4715.609167289134</v>
       </c>
       <c r="R23" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S23" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T23" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U23" t="n">
         <v>4230.837663200371</v>
       </c>
       <c r="V23" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856801</v>
       </c>
       <c r="W23" t="n">
         <v>3547.006120586686</v>
       </c>
       <c r="X23" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J24" t="n">
-        <v>292.9758476495718</v>
+        <v>168.145722662567</v>
       </c>
       <c r="K24" t="n">
-        <v>494.0079564978281</v>
+        <v>369.1778315108234</v>
       </c>
       <c r="L24" t="n">
-        <v>810.6429769025933</v>
+        <v>685.8128519155887</v>
       </c>
       <c r="M24" t="n">
-        <v>1199.497979178148</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N24" t="n">
-        <v>1613.053461205513</v>
+        <v>1641.602408682842</v>
       </c>
       <c r="O24" t="n">
-        <v>2175.072228054497</v>
+        <v>1997.705084917706</v>
       </c>
       <c r="P24" t="n">
-        <v>2441.5429540562</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q24" t="n">
-        <v>2569.752381132564</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R24" t="n">
         <v>2600.361752854265</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.00824283218</v>
+        <v>412.1230974667679</v>
       </c>
       <c r="C25" t="n">
-        <v>709.0720599042731</v>
+        <v>412.1230974667679</v>
       </c>
       <c r="D25" t="n">
-        <v>558.9554204919374</v>
+        <v>412.1230974667679</v>
       </c>
       <c r="E25" t="n">
-        <v>411.0423269095443</v>
+        <v>412.1230974667681</v>
       </c>
       <c r="F25" t="n">
-        <v>264.1523794116339</v>
+        <v>412.1230974667681</v>
       </c>
       <c r="G25" t="n">
-        <v>96.25231534256025</v>
+        <v>244.2230333976947</v>
       </c>
       <c r="H25" t="n">
         <v>96.25231534256025</v>
@@ -6145,16 +6145,16 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J25" t="n">
-        <v>127.7084527208552</v>
+        <v>127.7084527208549</v>
       </c>
       <c r="K25" t="n">
-        <v>309.2373860905588</v>
+        <v>309.2373860905584</v>
       </c>
       <c r="L25" t="n">
-        <v>597.0583571824201</v>
+        <v>597.0583571824196</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9143388153275</v>
+        <v>910.9143388153271</v>
       </c>
       <c r="N25" t="n">
         <v>1222.742143129469</v>
@@ -6166,31 +6166,31 @@
         <v>1703.977723167557</v>
       </c>
       <c r="Q25" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035739</v>
       </c>
       <c r="R25" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035739</v>
       </c>
       <c r="S25" t="n">
-        <v>1765.40156103574</v>
+        <v>1765.401561035739</v>
       </c>
       <c r="T25" t="n">
-        <v>1765.40156103574</v>
+        <v>1542.792246527242</v>
       </c>
       <c r="U25" t="n">
-        <v>1476.287936300813</v>
+        <v>1358.665799683385</v>
       </c>
       <c r="V25" t="n">
-        <v>1221.603448094926</v>
+        <v>1103.981311477498</v>
       </c>
       <c r="W25" t="n">
-        <v>932.186278057965</v>
+        <v>814.5641414405377</v>
       </c>
       <c r="X25" t="n">
-        <v>878.00824283218</v>
+        <v>814.5641414405377</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.00824283218</v>
+        <v>593.7715622970076</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C26" t="n">
         <v>2027.838673345261</v>
@@ -6209,7 +6209,7 @@
         <v>1669.572974738511</v>
       </c>
       <c r="E26" t="n">
-        <v>1283.784722140267</v>
+        <v>1283.784722140266</v>
       </c>
       <c r="F26" t="n">
         <v>872.7988173506587</v>
@@ -6227,49 +6227,49 @@
         <v>415.9620235708705</v>
       </c>
       <c r="K26" t="n">
-        <v>1015.868804260582</v>
+        <v>836.5005018636514</v>
       </c>
       <c r="L26" t="n">
-        <v>1812.382840634635</v>
+        <v>1633.014538237704</v>
       </c>
       <c r="M26" t="n">
-        <v>2715.264723398073</v>
+        <v>2535.896421001142</v>
       </c>
       <c r="N26" t="n">
-        <v>3618.124181412758</v>
+        <v>3438.755879015827</v>
       </c>
       <c r="O26" t="n">
-        <v>4048.488948255243</v>
+        <v>4246.11282530843</v>
       </c>
       <c r="P26" t="n">
-        <v>4513.858940434504</v>
+        <v>4578.918196108757</v>
       </c>
       <c r="Q26" t="n">
-        <v>4715.609167289134</v>
+        <v>4780.668422963387</v>
       </c>
       <c r="R26" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S26" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U26" t="n">
         <v>4230.837663200371</v>
       </c>
       <c r="V26" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856801</v>
       </c>
       <c r="W26" t="n">
         <v>3547.006120586686</v>
       </c>
       <c r="X26" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325607</v>
       </c>
       <c r="Y26" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J27" t="n">
-        <v>168.145722662567</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K27" t="n">
-        <v>369.1778315108234</v>
+        <v>494.0079564978281</v>
       </c>
       <c r="L27" t="n">
-        <v>685.8128519155887</v>
+        <v>810.6429769025933</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.667854191144</v>
+        <v>1199.497979178148</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.578923541333</v>
+        <v>1613.053461205513</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.681599776197</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P27" t="n">
-        <v>2472.1523257779</v>
+        <v>2235.626863442081</v>
       </c>
       <c r="Q27" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R27" t="n">
         <v>2600.361752854265</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.1589663218799</v>
+        <v>1129.235805196841</v>
       </c>
       <c r="C28" t="n">
-        <v>561.1589663218799</v>
+        <v>960.2996222689338</v>
       </c>
       <c r="D28" t="n">
-        <v>411.0423269095443</v>
+        <v>810.1829828565981</v>
       </c>
       <c r="E28" t="n">
-        <v>411.0423269095443</v>
+        <v>662.269889274205</v>
       </c>
       <c r="F28" t="n">
-        <v>264.1523794116339</v>
+        <v>515.3799417762946</v>
       </c>
       <c r="G28" t="n">
-        <v>96.25231534256025</v>
+        <v>347.4798777072209</v>
       </c>
       <c r="H28" t="n">
-        <v>96.25231534256025</v>
+        <v>199.5091596520865</v>
       </c>
       <c r="I28" t="n">
         <v>96.25231534256025</v>
       </c>
       <c r="J28" t="n">
-        <v>127.7084527208551</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K28" t="n">
         <v>309.2373860905587</v>
@@ -6409,25 +6409,25 @@
         <v>1666.703040729648</v>
       </c>
       <c r="S28" t="n">
-        <v>1666.703040729648</v>
+        <v>1640.958744440264</v>
       </c>
       <c r="T28" t="n">
-        <v>1666.703040729648</v>
+        <v>1418.349429931768</v>
       </c>
       <c r="U28" t="n">
-        <v>1481.006731230628</v>
+        <v>1129.235805196841</v>
       </c>
       <c r="V28" t="n">
-        <v>1481.006731230628</v>
+        <v>1129.235805196841</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.589561193667</v>
+        <v>1129.235805196841</v>
       </c>
       <c r="X28" t="n">
-        <v>963.6000102956498</v>
+        <v>1129.235805196841</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.8074311521196</v>
+        <v>1129.235805196841</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2396.801190285697</v>
+        <v>2396.801190285671</v>
       </c>
       <c r="C29" t="n">
-        <v>2027.838673345285</v>
+        <v>2027.838673345259</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.572974738535</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.784722140267</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F29" t="n">
-        <v>872.7988173506593</v>
+        <v>872.7988173506578</v>
       </c>
       <c r="G29" t="n">
-        <v>457.2866824420204</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H29" t="n">
-        <v>155.2001605676194</v>
+        <v>155.2001605676189</v>
       </c>
       <c r="I29" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J29" t="n">
-        <v>415.962023570871</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K29" t="n">
-        <v>694.9648458151298</v>
+        <v>1015.868804260582</v>
       </c>
       <c r="L29" t="n">
-        <v>1491.478882189182</v>
+        <v>1481.234155844748</v>
       </c>
       <c r="M29" t="n">
-        <v>2394.360764952621</v>
+        <v>2384.116038608187</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.220222967306</v>
+        <v>3286.975496622872</v>
       </c>
       <c r="O29" t="n">
-        <v>4104.577169259908</v>
+        <v>3717.340263465357</v>
       </c>
       <c r="P29" t="n">
-        <v>4437.382540060235</v>
+        <v>4368.726355355451</v>
       </c>
       <c r="Q29" t="n">
-        <v>4780.668422963412</v>
+        <v>4780.668422963387</v>
       </c>
       <c r="R29" t="n">
-        <v>4812.615767128037</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S29" t="n">
-        <v>4692.305782331667</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.40331470685</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U29" t="n">
-        <v>4230.837663200396</v>
+        <v>4230.837663200369</v>
       </c>
       <c r="V29" t="n">
-        <v>3899.774775856825</v>
+        <v>3899.774775856798</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.00612058671</v>
+        <v>3547.006120586684</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.540362325631</v>
+        <v>3173.540362325604</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.401030349819</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>971.6630058531888</v>
+        <v>971.6630058531881</v>
       </c>
       <c r="C30" t="n">
-        <v>797.2099765720618</v>
+        <v>797.2099765720611</v>
       </c>
       <c r="D30" t="n">
-        <v>648.2755669108105</v>
+        <v>648.2755669108099</v>
       </c>
       <c r="E30" t="n">
-        <v>489.038111905355</v>
+        <v>489.0381119053544</v>
       </c>
       <c r="F30" t="n">
-        <v>342.5035539322399</v>
+        <v>342.5035539322394</v>
       </c>
       <c r="G30" t="n">
-        <v>205.9052016818162</v>
+        <v>205.9052016818157</v>
       </c>
       <c r="H30" t="n">
-        <v>113.1312674650433</v>
+        <v>113.1312674650428</v>
       </c>
       <c r="I30" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J30" t="n">
-        <v>292.9758476495723</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K30" t="n">
-        <v>494.0079564978286</v>
+        <v>494.0079564978281</v>
       </c>
       <c r="L30" t="n">
-        <v>839.1919243799232</v>
+        <v>839.1919243799223</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.046926655478</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N30" t="n">
-        <v>1641.602408682843</v>
+        <v>1641.602408682842</v>
       </c>
       <c r="O30" t="n">
-        <v>1997.705084917707</v>
+        <v>1997.705084917706</v>
       </c>
       <c r="P30" t="n">
-        <v>2264.175810919411</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q30" t="n">
         <v>2600.361752854265</v>
@@ -6567,25 +6567,25 @@
         <v>2600.361752854265</v>
       </c>
       <c r="S30" t="n">
-        <v>2466.554162085983</v>
+        <v>2466.554162085982</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.962930779999</v>
+        <v>2272.962930779998</v>
       </c>
       <c r="U30" t="n">
-        <v>2044.879606803688</v>
+        <v>2044.879606803687</v>
       </c>
       <c r="V30" t="n">
-        <v>1809.727498571945</v>
+        <v>1809.727498571944</v>
       </c>
       <c r="W30" t="n">
         <v>1555.490141843743</v>
       </c>
       <c r="X30" t="n">
-        <v>1347.638641638211</v>
+        <v>1347.63864163821</v>
       </c>
       <c r="Y30" t="n">
-        <v>1139.878342873257</v>
+        <v>1139.878342873256</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>858.0788968182416</v>
+        <v>286.4643920260012</v>
       </c>
       <c r="C31" t="n">
-        <v>689.1427138903347</v>
+        <v>286.4643920260012</v>
       </c>
       <c r="D31" t="n">
-        <v>539.0260744779989</v>
+        <v>243.1422628404706</v>
       </c>
       <c r="E31" t="n">
-        <v>391.1129808956058</v>
+        <v>243.1422628404706</v>
       </c>
       <c r="F31" t="n">
-        <v>244.2230333976952</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2230333976952</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H31" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I31" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J31" t="n">
-        <v>127.7084527208557</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K31" t="n">
-        <v>309.2373860905593</v>
+        <v>309.2373860905589</v>
       </c>
       <c r="L31" t="n">
-        <v>597.0583571824205</v>
+        <v>597.0583571824202</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9143388153281</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N31" t="n">
         <v>1222.74214312947</v>
@@ -6646,25 +6646,25 @@
         <v>1765.40156103574</v>
       </c>
       <c r="S31" t="n">
-        <v>1765.40156103574</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T31" t="n">
-        <v>1765.40156103574</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U31" t="n">
-        <v>1765.40156103574</v>
+        <v>1058.555601166866</v>
       </c>
       <c r="V31" t="n">
-        <v>1765.40156103574</v>
+        <v>803.8711129609791</v>
       </c>
       <c r="W31" t="n">
-        <v>1475.984390998779</v>
+        <v>514.4539429240185</v>
       </c>
       <c r="X31" t="n">
-        <v>1247.994840100762</v>
+        <v>286.4643920260012</v>
       </c>
       <c r="Y31" t="n">
-        <v>1027.202260957232</v>
+        <v>286.4643920260012</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2396.801190285697</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C32" t="n">
-        <v>2027.838673345285</v>
+        <v>2027.838673345261</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.572974738535</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E32" t="n">
         <v>1283.784722140267</v>
       </c>
       <c r="F32" t="n">
-        <v>872.7988173506592</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G32" t="n">
-        <v>457.2866824420204</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H32" t="n">
-        <v>155.2001605676194</v>
+        <v>155.2001605676189</v>
       </c>
       <c r="I32" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J32" t="n">
-        <v>248.5563745505179</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K32" t="n">
-        <v>848.4631552402299</v>
+        <v>836.5005018636514</v>
       </c>
       <c r="L32" t="n">
-        <v>1644.977191614282</v>
+        <v>1633.014538237704</v>
       </c>
       <c r="M32" t="n">
-        <v>2547.859074377721</v>
+        <v>2535.896421001142</v>
       </c>
       <c r="N32" t="n">
-        <v>3228.564038262546</v>
+        <v>3438.755879015827</v>
       </c>
       <c r="O32" t="n">
-        <v>4035.920984555149</v>
+        <v>4246.11282530843</v>
       </c>
       <c r="P32" t="n">
-        <v>4368.726355355476</v>
+        <v>4578.918196108757</v>
       </c>
       <c r="Q32" t="n">
-        <v>4780.668422963412</v>
+        <v>4780.668422963387</v>
       </c>
       <c r="R32" t="n">
-        <v>4812.615767128037</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S32" t="n">
-        <v>4692.305782331667</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T32" t="n">
-        <v>4484.40331470685</v>
+        <v>4484.403314706825</v>
       </c>
       <c r="U32" t="n">
-        <v>4230.837663200396</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V32" t="n">
-        <v>3899.774775856825</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.00612058671</v>
+        <v>3547.006120586686</v>
       </c>
       <c r="X32" t="n">
-        <v>3173.540362325631</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2783.401030349819</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>971.6630058531888</v>
+        <v>971.6630058531881</v>
       </c>
       <c r="C33" t="n">
-        <v>797.2099765720618</v>
+        <v>797.2099765720611</v>
       </c>
       <c r="D33" t="n">
-        <v>648.2755669108105</v>
+        <v>648.2755669108099</v>
       </c>
       <c r="E33" t="n">
-        <v>489.038111905355</v>
+        <v>489.0381119053544</v>
       </c>
       <c r="F33" t="n">
-        <v>342.5035539322399</v>
+        <v>342.5035539322394</v>
       </c>
       <c r="G33" t="n">
-        <v>205.9052016818162</v>
+        <v>205.9052016818157</v>
       </c>
       <c r="H33" t="n">
-        <v>113.1312674650433</v>
+        <v>113.1312674650428</v>
       </c>
       <c r="I33" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J33" t="n">
-        <v>290.9154234052012</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K33" t="n">
-        <v>491.9475322534575</v>
+        <v>494.0079564978281</v>
       </c>
       <c r="L33" t="n">
-        <v>808.5825526582228</v>
+        <v>810.6429769025933</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.437554933778</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N33" t="n">
-        <v>1610.993036961143</v>
+        <v>1641.602408682842</v>
       </c>
       <c r="O33" t="n">
-        <v>1967.095713196007</v>
+        <v>1997.705084917706</v>
       </c>
       <c r="P33" t="n">
-        <v>2233.56643919771</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q33" t="n">
-        <v>2569.752381132565</v>
+        <v>2600.361752854265</v>
       </c>
       <c r="R33" t="n">
         <v>2600.361752854265</v>
       </c>
       <c r="S33" t="n">
-        <v>2466.554162085983</v>
+        <v>2466.554162085982</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.962930779999</v>
+        <v>2272.962930779998</v>
       </c>
       <c r="U33" t="n">
-        <v>2044.879606803688</v>
+        <v>2044.879606803687</v>
       </c>
       <c r="V33" t="n">
-        <v>1809.727498571945</v>
+        <v>1809.727498571944</v>
       </c>
       <c r="W33" t="n">
         <v>1555.490141843743</v>
       </c>
       <c r="X33" t="n">
-        <v>1347.638641638211</v>
+        <v>1347.63864163821</v>
       </c>
       <c r="Y33" t="n">
-        <v>1139.878342873257</v>
+        <v>1139.878342873256</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>647.5256232333828</v>
+        <v>279.7571543567607</v>
       </c>
       <c r="C34" t="n">
-        <v>503.5713734341393</v>
+        <v>279.7571543567607</v>
       </c>
       <c r="D34" t="n">
-        <v>378.436667150467</v>
+        <v>279.7571543567607</v>
       </c>
       <c r="E34" t="n">
-        <v>255.5055066967373</v>
+        <v>239.1704462829706</v>
       </c>
       <c r="F34" t="n">
-        <v>133.59749232749</v>
+        <v>239.1704462829706</v>
       </c>
       <c r="G34" t="n">
-        <v>133.59749232749</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H34" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I34" t="n">
-        <v>96.25231534256075</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J34" t="n">
-        <v>152.1932453802587</v>
+        <v>152.1932453802581</v>
       </c>
       <c r="K34" t="n">
-        <v>358.2069714093652</v>
+        <v>358.2069714093645</v>
       </c>
       <c r="L34" t="n">
-        <v>670.5127351606295</v>
+        <v>670.5127351606286</v>
       </c>
       <c r="M34" t="n">
-        <v>1008.85350945294</v>
+        <v>1008.853509452939</v>
       </c>
       <c r="N34" t="n">
-        <v>1345.166106426485</v>
+        <v>1345.166106426484</v>
       </c>
       <c r="O34" t="n">
-        <v>1641.658051648165</v>
+        <v>1641.658051648164</v>
       </c>
       <c r="P34" t="n">
-        <v>1875.371271783378</v>
+        <v>1875.371271783377</v>
       </c>
       <c r="Q34" t="n">
-        <v>1961.279902310964</v>
+        <v>1961.279902310963</v>
       </c>
       <c r="R34" t="n">
-        <v>1961.279902310964</v>
+        <v>1961.279902310963</v>
       </c>
       <c r="S34" t="n">
-        <v>1961.279902310964</v>
+        <v>1791.138814814176</v>
       </c>
       <c r="T34" t="n">
-        <v>1961.279902310964</v>
+        <v>1593.511433434343</v>
       </c>
       <c r="U34" t="n">
-        <v>1697.1482107047</v>
+        <v>1329.379741828079</v>
       </c>
       <c r="V34" t="n">
-        <v>1467.445655627477</v>
+        <v>1099.677186750855</v>
       </c>
       <c r="W34" t="n">
-        <v>1203.01041871918</v>
+        <v>835.2419498425578</v>
       </c>
       <c r="X34" t="n">
-        <v>1000.002800949826</v>
+        <v>632.2343320732039</v>
       </c>
       <c r="Y34" t="n">
-        <v>804.1921549349591</v>
+        <v>436.4236860583371</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1984.953510602832</v>
       </c>
       <c r="C35" t="n">
-        <v>1672.361206803367</v>
+        <v>1672.361206803368</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.465721337564</v>
+        <v>1370.465721337565</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.047681880267</v>
+        <v>1041.047681880268</v>
       </c>
       <c r="F35" t="n">
-        <v>686.4319902316074</v>
+        <v>686.4319902316083</v>
       </c>
       <c r="G35" t="n">
-        <v>327.2900684639167</v>
+        <v>327.2900684639164</v>
       </c>
       <c r="H35" t="n">
-        <v>81.57375973046305</v>
+        <v>81.57375973046301</v>
       </c>
       <c r="I35" t="n">
-        <v>78.99612764635185</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J35" t="n">
         <v>231.3001868543091</v>
@@ -6941,43 +6941,43 @@
         <v>831.2069675440209</v>
       </c>
       <c r="L35" t="n">
-        <v>1580.170788045266</v>
+        <v>1264.557029989032</v>
       </c>
       <c r="M35" t="n">
-        <v>2483.052670808705</v>
+        <v>1722.420514594566</v>
       </c>
       <c r="N35" t="n">
-        <v>2952.938673655525</v>
+        <v>2192.306517441387</v>
       </c>
       <c r="O35" t="n">
-        <v>3383.30344049801</v>
+        <v>2999.663463733989</v>
       </c>
       <c r="P35" t="n">
-        <v>3716.108811298337</v>
+        <v>3651.049555624084</v>
       </c>
       <c r="Q35" t="n">
-        <v>3917.859038152967</v>
+        <v>3852.799782478714</v>
       </c>
       <c r="R35" t="n">
-        <v>3949.806382317593</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S35" t="n">
         <v>3885.866610662169</v>
       </c>
       <c r="T35" t="n">
-        <v>3734.3343561783</v>
+        <v>3734.334356178299</v>
       </c>
       <c r="U35" t="n">
         <v>3537.138917812793</v>
       </c>
       <c r="V35" t="n">
-        <v>3262.446243610169</v>
+        <v>3262.44624361017</v>
       </c>
       <c r="W35" t="n">
         <v>2966.047801481003</v>
       </c>
       <c r="X35" t="n">
-        <v>2648.95225636087</v>
+        <v>2648.952256360871</v>
       </c>
       <c r="Y35" t="n">
         <v>2315.183137526006</v>
@@ -7008,34 +7008,34 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H36" t="n">
-        <v>95.8750797688344</v>
+        <v>95.87507976883438</v>
       </c>
       <c r="I36" t="n">
-        <v>78.99612764635185</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J36" t="n">
-        <v>150.8895349663586</v>
+        <v>275.7196599533634</v>
       </c>
       <c r="K36" t="n">
-        <v>351.921643814615</v>
+        <v>476.7517688016197</v>
       </c>
       <c r="L36" t="n">
-        <v>1029.912251542205</v>
+        <v>793.3867892063849</v>
       </c>
       <c r="M36" t="n">
-        <v>1418.76725381776</v>
+        <v>1182.24179148194</v>
       </c>
       <c r="N36" t="n">
-        <v>1832.322735845125</v>
+        <v>1595.797273509305</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.425412079989</v>
+        <v>1951.899949744169</v>
       </c>
       <c r="P36" t="n">
-        <v>2454.896138081692</v>
+        <v>2218.370675745872</v>
       </c>
       <c r="Q36" t="n">
-        <v>2583.105565158056</v>
+        <v>2552.496193436356</v>
       </c>
       <c r="R36" t="n">
         <v>2583.105565158056</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.3881255140001</v>
+        <v>717.3881255139997</v>
       </c>
       <c r="C37" t="n">
-        <v>604.8221557270406</v>
+        <v>604.8221557270404</v>
       </c>
       <c r="D37" t="n">
-        <v>511.0757294556523</v>
+        <v>511.0757294556521</v>
       </c>
       <c r="E37" t="n">
-        <v>419.5328490142066</v>
+        <v>419.5328490142065</v>
       </c>
       <c r="F37" t="n">
-        <v>329.0131146572438</v>
+        <v>329.0131146572436</v>
       </c>
       <c r="G37" t="n">
-        <v>217.4832637291176</v>
+        <v>217.4832637291174</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8827588149306</v>
+        <v>125.8827588149305</v>
       </c>
       <c r="I37" t="n">
-        <v>78.99612764635185</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J37" t="n">
-        <v>165.7007109240892</v>
+        <v>165.7007109240897</v>
       </c>
       <c r="K37" t="n">
-        <v>402.4780901932354</v>
+        <v>402.478090193236</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5475071845393</v>
+        <v>745.5475071845399</v>
       </c>
       <c r="M37" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N37" t="n">
-        <v>1481.728184930474</v>
+        <v>1481.728184930475</v>
       </c>
       <c r="O37" t="n">
         <v>1808.983783392194</v>
       </c>
       <c r="P37" t="n">
-        <v>2073.460656767446</v>
+        <v>2073.460656767447</v>
       </c>
       <c r="Q37" t="n">
-        <v>2190.132940535072</v>
+        <v>2190.132940535073</v>
       </c>
       <c r="R37" t="n">
-        <v>2147.804633369928</v>
+        <v>2147.804633369929</v>
       </c>
       <c r="S37" t="n">
         <v>2009.051825885426</v>
       </c>
       <c r="T37" t="n">
-        <v>1842.812724517876</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U37" t="n">
         <v>1610.069312923897</v>
@@ -7132,13 +7132,13 @@
         <v>1411.755037858958</v>
       </c>
       <c r="W37" t="n">
-        <v>1178.708080962945</v>
+        <v>1178.708080962944</v>
       </c>
       <c r="X37" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y37" t="n">
-        <v>842.6663772032923</v>
+        <v>842.666377203292</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1984.953510602831</v>
+        <v>1984.953510602832</v>
       </c>
       <c r="C38" t="n">
-        <v>1672.361206803367</v>
+        <v>1672.361206803368</v>
       </c>
       <c r="D38" t="n">
-        <v>1370.465721337564</v>
+        <v>1370.465721337565</v>
       </c>
       <c r="E38" t="n">
-        <v>1041.047681880267</v>
+        <v>1041.047681880268</v>
       </c>
       <c r="F38" t="n">
-        <v>686.4319902316074</v>
+        <v>686.4319902316081</v>
       </c>
       <c r="G38" t="n">
-        <v>327.2900684639161</v>
+        <v>327.2900684639167</v>
       </c>
       <c r="H38" t="n">
         <v>81.573759730463</v>
       </c>
       <c r="I38" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J38" t="n">
-        <v>231.300186854309</v>
+        <v>398.7058358746621</v>
       </c>
       <c r="K38" t="n">
-        <v>510.3030090985677</v>
+        <v>677.708658118921</v>
       </c>
       <c r="L38" t="n">
-        <v>893.3324430676739</v>
+        <v>1060.738092088027</v>
       </c>
       <c r="M38" t="n">
-        <v>1796.214325831113</v>
+        <v>1963.619974851466</v>
       </c>
       <c r="N38" t="n">
-        <v>2266.100328677933</v>
+        <v>2433.505977698287</v>
       </c>
       <c r="O38" t="n">
-        <v>3073.457274970536</v>
+        <v>2863.870744540771</v>
       </c>
       <c r="P38" t="n">
-        <v>3505.916970545029</v>
+        <v>3440.857714870778</v>
       </c>
       <c r="Q38" t="n">
-        <v>3917.859038152965</v>
+        <v>3852.799782478714</v>
       </c>
       <c r="R38" t="n">
-        <v>3949.806382317591</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S38" t="n">
-        <v>3885.866610662168</v>
+        <v>3885.866610662169</v>
       </c>
       <c r="T38" t="n">
-        <v>3734.334356178299</v>
+        <v>3734.3343561783</v>
       </c>
       <c r="U38" t="n">
-        <v>3537.138917812792</v>
+        <v>3537.138917812793</v>
       </c>
       <c r="V38" t="n">
-        <v>3262.446243610168</v>
+        <v>3262.44624361017</v>
       </c>
       <c r="W38" t="n">
-        <v>2966.047801481002</v>
+        <v>2966.047801481003</v>
       </c>
       <c r="X38" t="n">
-        <v>2648.952256360869</v>
+        <v>2648.952256360871</v>
       </c>
       <c r="Y38" t="n">
-        <v>2315.183137526005</v>
+        <v>2315.183137526006</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H39" t="n">
-        <v>95.87507976883437</v>
+        <v>95.87507976883438</v>
       </c>
       <c r="I39" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J39" t="n">
-        <v>150.8895349663586</v>
+        <v>275.7196599533634</v>
       </c>
       <c r="K39" t="n">
-        <v>351.9216438146149</v>
+        <v>476.7517688016197</v>
       </c>
       <c r="L39" t="n">
-        <v>821.9357366837144</v>
+        <v>793.3867892063849</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.790738959269</v>
+        <v>1182.24179148194</v>
       </c>
       <c r="N39" t="n">
-        <v>1624.346220986635</v>
+        <v>1595.797273509305</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.448897221499</v>
+        <v>1951.899949744169</v>
       </c>
       <c r="P39" t="n">
-        <v>2246.919623223202</v>
+        <v>2218.370675745872</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.105565158056</v>
+        <v>2552.496193436356</v>
       </c>
       <c r="R39" t="n">
         <v>2583.105565158056</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.388125514</v>
+        <v>717.3881255139997</v>
       </c>
       <c r="C40" t="n">
-        <v>604.8221557270406</v>
+        <v>604.8221557270404</v>
       </c>
       <c r="D40" t="n">
-        <v>511.0757294556524</v>
+        <v>511.0757294556521</v>
       </c>
       <c r="E40" t="n">
-        <v>419.5328490142068</v>
+        <v>419.5328490142065</v>
       </c>
       <c r="F40" t="n">
-        <v>329.013114657244</v>
+        <v>329.0131146572436</v>
       </c>
       <c r="G40" t="n">
-        <v>217.4832637291179</v>
+        <v>217.4832637291175</v>
       </c>
       <c r="H40" t="n">
         <v>125.8827588149305</v>
       </c>
       <c r="I40" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J40" t="n">
-        <v>165.7007109240895</v>
+        <v>165.7007109240894</v>
       </c>
       <c r="K40" t="n">
         <v>402.4780901932356</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5475071845395</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M40" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N40" t="n">
-        <v>1481.728184930474</v>
+        <v>1481.728184930475</v>
       </c>
       <c r="O40" t="n">
         <v>1808.983783392194</v>
       </c>
       <c r="P40" t="n">
-        <v>2073.460656767446</v>
+        <v>2073.460656767447</v>
       </c>
       <c r="Q40" t="n">
         <v>2190.132940535072</v>
@@ -7360,22 +7360,22 @@
         <v>2009.051825885426</v>
       </c>
       <c r="T40" t="n">
-        <v>1842.812724517877</v>
+        <v>1842.812724517876</v>
       </c>
       <c r="U40" t="n">
         <v>1610.069312923897</v>
       </c>
       <c r="V40" t="n">
-        <v>1411.755037858958</v>
+        <v>1411.755037858957</v>
       </c>
       <c r="W40" t="n">
-        <v>1178.708080962945</v>
+        <v>1178.708080962944</v>
       </c>
       <c r="X40" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.6663772032922</v>
+        <v>842.666377203292</v>
       </c>
     </row>
     <row r="41">
@@ -7394,40 +7394,40 @@
         <v>1370.465721337564</v>
       </c>
       <c r="E41" t="n">
-        <v>1041.047681880267</v>
+        <v>1041.047681880268</v>
       </c>
       <c r="F41" t="n">
-        <v>686.4319902316072</v>
+        <v>686.4319902316081</v>
       </c>
       <c r="G41" t="n">
-        <v>327.2900684639158</v>
+        <v>327.2900684639167</v>
       </c>
       <c r="H41" t="n">
-        <v>81.57375973046298</v>
+        <v>81.573759730463</v>
       </c>
       <c r="I41" t="n">
         <v>78.99612764635184</v>
       </c>
       <c r="J41" t="n">
-        <v>231.3001868543091</v>
+        <v>398.7058358746621</v>
       </c>
       <c r="K41" t="n">
-        <v>831.2069675440209</v>
+        <v>998.6126165643741</v>
       </c>
       <c r="L41" t="n">
-        <v>1627.721003918073</v>
+        <v>1381.64205053348</v>
       </c>
       <c r="M41" t="n">
-        <v>2085.584488523608</v>
+        <v>1839.505535139015</v>
       </c>
       <c r="N41" t="n">
-        <v>2555.470491370429</v>
+        <v>2309.391537985835</v>
       </c>
       <c r="O41" t="n">
-        <v>2985.835258212913</v>
+        <v>2789.471622980683</v>
       </c>
       <c r="P41" t="n">
-        <v>3637.221350103008</v>
+        <v>3440.857714870778</v>
       </c>
       <c r="Q41" t="n">
         <v>3852.799782478713</v>
@@ -7436,13 +7436,13 @@
         <v>3949.806382317592</v>
       </c>
       <c r="S41" t="n">
-        <v>3885.866610662168</v>
+        <v>3885.866610662169</v>
       </c>
       <c r="T41" t="n">
         <v>3734.334356178299</v>
       </c>
       <c r="U41" t="n">
-        <v>3537.138917812792</v>
+        <v>3537.138917812793</v>
       </c>
       <c r="V41" t="n">
         <v>3262.446243610169</v>
@@ -7454,7 +7454,7 @@
         <v>2648.95225636087</v>
       </c>
       <c r="Y41" t="n">
-        <v>2315.183137526005</v>
+        <v>2315.183137526006</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>78.99612764635184</v>
       </c>
       <c r="J42" t="n">
-        <v>273.6592357089921</v>
+        <v>275.7196599533634</v>
       </c>
       <c r="K42" t="n">
-        <v>474.6913445572484</v>
+        <v>476.7517688016197</v>
       </c>
       <c r="L42" t="n">
-        <v>791.3263649620137</v>
+        <v>793.3867892063849</v>
       </c>
       <c r="M42" t="n">
-        <v>1180.181367237569</v>
+        <v>1182.24179148194</v>
       </c>
       <c r="N42" t="n">
-        <v>1593.736849264934</v>
+        <v>1595.797273509305</v>
       </c>
       <c r="O42" t="n">
-        <v>1949.839525499798</v>
+        <v>1951.899949744169</v>
       </c>
       <c r="P42" t="n">
-        <v>2216.310251501501</v>
+        <v>2218.370675745872</v>
       </c>
       <c r="Q42" t="n">
         <v>2552.496193436356</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.3881255139995</v>
+        <v>717.3881255139997</v>
       </c>
       <c r="C43" t="n">
-        <v>604.8221557270401</v>
+        <v>604.8221557270404</v>
       </c>
       <c r="D43" t="n">
-        <v>511.075729455652</v>
+        <v>511.0757294556522</v>
       </c>
       <c r="E43" t="n">
-        <v>419.5328490142064</v>
+        <v>419.5328490142065</v>
       </c>
       <c r="F43" t="n">
         <v>329.0131146572436</v>
@@ -7570,19 +7570,19 @@
         <v>165.7007109240894</v>
       </c>
       <c r="K43" t="n">
-        <v>402.4780901932345</v>
+        <v>402.4780901932356</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5475071845385</v>
+        <v>745.5475071845395</v>
       </c>
       <c r="M43" t="n">
-        <v>1114.651934716889</v>
+        <v>1114.65193471689</v>
       </c>
       <c r="N43" t="n">
-        <v>1481.728184930473</v>
+        <v>1481.728184930475</v>
       </c>
       <c r="O43" t="n">
-        <v>1808.983783392193</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P43" t="n">
         <v>2073.460656767446</v>
@@ -7594,25 +7594,25 @@
         <v>2147.804633369928</v>
       </c>
       <c r="S43" t="n">
-        <v>2009.051825885425</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T43" t="n">
-        <v>1842.812724517876</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U43" t="n">
         <v>1610.069312923897</v>
       </c>
       <c r="V43" t="n">
-        <v>1411.755037858957</v>
+        <v>1411.755037858958</v>
       </c>
       <c r="W43" t="n">
         <v>1178.708080962944</v>
       </c>
       <c r="X43" t="n">
-        <v>1007.088743205874</v>
+        <v>1007.088743205875</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.6663772032917</v>
+        <v>842.666377203292</v>
       </c>
     </row>
     <row r="44">
@@ -7631,43 +7631,43 @@
         <v>1370.465721337565</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.047681880269</v>
+        <v>1041.047681880268</v>
       </c>
       <c r="F44" t="n">
-        <v>686.4319902316086</v>
+        <v>686.4319902316083</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2900684639171</v>
+        <v>327.290068463917</v>
       </c>
       <c r="H44" t="n">
-        <v>81.57375973046301</v>
+        <v>81.57375973046302</v>
       </c>
       <c r="I44" t="n">
         <v>78.99612764635184</v>
       </c>
       <c r="J44" t="n">
-        <v>231.3001868543091</v>
+        <v>398.7058358746621</v>
       </c>
       <c r="K44" t="n">
-        <v>510.3030090985679</v>
+        <v>989.9164763563874</v>
       </c>
       <c r="L44" t="n">
-        <v>1306.81704547262</v>
+        <v>1372.945910325494</v>
       </c>
       <c r="M44" t="n">
-        <v>1895.868650605281</v>
+        <v>1830.809394931028</v>
       </c>
       <c r="N44" t="n">
-        <v>2365.754653452102</v>
+        <v>2300.695397777849</v>
       </c>
       <c r="O44" t="n">
-        <v>3173.111599744704</v>
+        <v>3108.052344070451</v>
       </c>
       <c r="P44" t="n">
-        <v>3505.916970545031</v>
+        <v>3440.857714870778</v>
       </c>
       <c r="Q44" t="n">
-        <v>3917.859038152967</v>
+        <v>3852.799782478714</v>
       </c>
       <c r="R44" t="n">
         <v>3949.806382317592</v>
@@ -7676,16 +7676,16 @@
         <v>3885.866610662169</v>
       </c>
       <c r="T44" t="n">
-        <v>3734.3343561783</v>
+        <v>3734.334356178299</v>
       </c>
       <c r="U44" t="n">
         <v>3537.138917812793</v>
       </c>
       <c r="V44" t="n">
-        <v>3262.44624361017</v>
+        <v>3262.446243610169</v>
       </c>
       <c r="W44" t="n">
-        <v>2966.047801481004</v>
+        <v>2966.047801481003</v>
       </c>
       <c r="X44" t="n">
         <v>2648.952256360871</v>
@@ -7737,16 +7737,16 @@
         <v>1182.24179148194</v>
       </c>
       <c r="N45" t="n">
-        <v>1624.346220986634</v>
+        <v>1595.797273509305</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.448897221498</v>
+        <v>1951.899949744169</v>
       </c>
       <c r="P45" t="n">
-        <v>2246.919623223202</v>
+        <v>2218.370675745872</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.105565158056</v>
+        <v>2552.496193436356</v>
       </c>
       <c r="R45" t="n">
         <v>2583.105565158056</v>
@@ -7807,10 +7807,10 @@
         <v>165.7007109240894</v>
       </c>
       <c r="K46" t="n">
-        <v>402.4780901932356</v>
+        <v>402.4780901932355</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5475071845395</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M46" t="n">
         <v>1114.65193471689</v>
@@ -7825,7 +7825,7 @@
         <v>2073.460656767447</v>
       </c>
       <c r="Q46" t="n">
-        <v>2190.132940535072</v>
+        <v>2190.132940535073</v>
       </c>
       <c r="R46" t="n">
         <v>2147.804633369928</v>
@@ -7834,13 +7834,13 @@
         <v>2009.051825885426</v>
       </c>
       <c r="T46" t="n">
-        <v>1842.812724517877</v>
+        <v>1842.812724517876</v>
       </c>
       <c r="U46" t="n">
         <v>1610.069312923897</v>
       </c>
       <c r="V46" t="n">
-        <v>1411.755037858958</v>
+        <v>1411.755037858957</v>
       </c>
       <c r="W46" t="n">
         <v>1178.708080962944</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>159.398634700775</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>256.166820980741</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>69.62184945320331</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0870864657819</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>105.8502357692049</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>77.24888926693808</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>154.92835602458</v>
+        <v>28.83732068417078</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>115.0199124929488</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>34.03051377910828</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>46.54287512049206</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>207.9960511253735</v>
       </c>
       <c r="R18" t="n">
-        <v>14.60311251667378</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>437.4300452336644</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>246.3455044390122</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>46.54287512049206</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>207.996051125373</v>
       </c>
       <c r="R21" t="n">
-        <v>14.60311251667378</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>105.8502357692031</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>327.3349031528518</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>154.9283560245794</v>
       </c>
       <c r="O24" t="n">
-        <v>207.9960511253731</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667378</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>142.9653091399213</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>133.9036579585191</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>365.0056437604288</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>207.996051125373</v>
       </c>
       <c r="R27" t="n">
-        <v>14.60311251667378</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>83.16759355056519</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,13 +10124,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.9653091399458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>28.837320684171</v>
+        <v>28.83732068417061</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>142.9653091399213</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9484454929339</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>124.009798729933</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>28.83732068417061</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667378</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>369.6306934668067</v>
+        <v>50.82891765242869</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>365.0056437604291</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>207.9960511253735</v>
       </c>
       <c r="R36" t="n">
-        <v>14.60311251667378</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>100.6609341153201</v>
+        <v>246.64808033301</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>154.9283560245801</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>207.9960511253735</v>
       </c>
       <c r="R39" t="n">
-        <v>14.6031125166738</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>50.21749308319505</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>13.96788436472266</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>124.0097987299328</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>207.9960511253735</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>315.3614325630977</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>132.5132530577033</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>28.837320684171</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>207.9960511253735</v>
       </c>
       <c r="R45" t="n">
-        <v>14.60311251667378</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.2210634283829</v>
       </c>
       <c r="H13" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>102.2242758664309</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.71153510303044</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>193.1717904191954</v>
       </c>
       <c r="T13" t="n">
-        <v>31.74241022522666</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>178.5830937586518</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2210634283829</v>
+        <v>65.07528399505068</v>
       </c>
       <c r="H16" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.71153510303044</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.898938859561</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H19" t="n">
         <v>146.4910108745831</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3832213634118</v>
+        <v>210.1066776174259</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>250.0277354518609</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.85566451637661</v>
+        <v>175.6957454584195</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>102.2242758664309</v>
@@ -24415,10 +24415,10 @@
         <v>193.1717904191954</v>
       </c>
       <c r="T25" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>103.9373061121592</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.0734005155101</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>193.1717904191954</v>
+        <v>167.6849370927056</v>
       </c>
       <c r="T28" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.3831420835474</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.39984968433706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>105.7265651245374</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>166.2210634283829</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I31" t="n">
         <v>102.2242758664309</v>
@@ -24886,16 +24886,16 @@
         <v>97.71153510303044</v>
       </c>
       <c r="S31" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>142.5147073012512</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.8833592208357</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.52100785614033</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>120.6889342255546</v>
       </c>
       <c r="G34" t="n">
-        <v>141.4889496310061</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>84.78717186212643</v>
+        <v>121.7588970772065</v>
       </c>
       <c r="I34" t="n">
-        <v>77.49216206905416</v>
+        <v>77.49216206905427</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.97942130565367</v>
+        <v>72.97942130565377</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4396766218186</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>195.6511075660351</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
@@ -26323,7 +26323,7 @@
         <v>256460.8946380177</v>
       </c>
       <c r="F2" t="n">
-        <v>256460.8946380178</v>
+        <v>256460.8946380177</v>
       </c>
       <c r="G2" t="n">
         <v>256460.8946380178</v>
@@ -26332,28 +26332,28 @@
         <v>256460.8946380178</v>
       </c>
       <c r="I2" t="n">
+        <v>256460.8946380177</v>
+      </c>
+      <c r="J2" t="n">
         <v>256460.8946380178</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>256460.8946380176</v>
       </c>
-      <c r="K2" t="n">
-        <v>256460.8946380177</v>
-      </c>
       <c r="L2" t="n">
-        <v>261060.0349912579</v>
+        <v>261060.0349912577</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.5752058918</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.5752058918</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058917</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058918</v>
+        <v>266838.5752058919</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>1075812.840977745</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>1.580005118739791e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19785.69103790142</v>
+        <v>19785.69103790133</v>
       </c>
       <c r="M3" t="n">
-        <v>210874.6803490276</v>
+        <v>210874.6803490293</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
+        <v>45771.09472565662</v>
+      </c>
+      <c r="F4" t="n">
         <v>45771.0947256566</v>
       </c>
-      <c r="F4" t="n">
-        <v>45771.09472565659</v>
-      </c>
       <c r="G4" t="n">
-        <v>45771.09472565666</v>
+        <v>45771.09472565663</v>
       </c>
       <c r="H4" t="n">
-        <v>45771.09472565665</v>
+        <v>45771.09472565661</v>
       </c>
       <c r="I4" t="n">
-        <v>45771.09472565661</v>
+        <v>45771.09472565663</v>
       </c>
       <c r="J4" t="n">
         <v>45771.09472565661</v>
       </c>
       <c r="K4" t="n">
-        <v>45771.09472565599</v>
+        <v>45771.09472565661</v>
       </c>
       <c r="L4" t="n">
-        <v>53909.1927029246</v>
+        <v>53909.19270292519</v>
       </c>
       <c r="M4" t="n">
-        <v>86767.32092341207</v>
+        <v>86767.3209234121</v>
       </c>
       <c r="N4" t="n">
-        <v>86767.32092341209</v>
+        <v>86767.3209234121</v>
       </c>
       <c r="O4" t="n">
-        <v>86767.32092341207</v>
+        <v>86767.3209234121</v>
       </c>
       <c r="P4" t="n">
         <v>86767.3209234121</v>
@@ -26494,16 +26494,16 @@
         <v>94548.43424048129</v>
       </c>
       <c r="K5" t="n">
-        <v>94548.43424048164</v>
+        <v>94548.43424048129</v>
       </c>
       <c r="L5" t="n">
-        <v>96627.63831531332</v>
+        <v>96627.63831531294</v>
       </c>
       <c r="M5" t="n">
-        <v>86125.32916542375</v>
+        <v>86125.32916542374</v>
       </c>
       <c r="N5" t="n">
-        <v>86125.32916542373</v>
+        <v>86125.32916542374</v>
       </c>
       <c r="O5" t="n">
         <v>86125.32916542374</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216645.3923663266</v>
+        <v>-216645.3923663267</v>
       </c>
       <c r="C6" t="n">
-        <v>-135875.9608347788</v>
+        <v>-135875.960834779</v>
       </c>
       <c r="D6" t="n">
         <v>-135875.9608347789</v>
       </c>
       <c r="E6" t="n">
-        <v>-959671.4753058648</v>
+        <v>-959751.3036179254</v>
       </c>
       <c r="F6" t="n">
-        <v>116141.3656718798</v>
+        <v>116061.5373598192</v>
       </c>
       <c r="G6" t="n">
-        <v>116141.3656718798</v>
+        <v>116061.5373598193</v>
       </c>
       <c r="H6" t="n">
-        <v>116141.3656718799</v>
+        <v>116061.5373598193</v>
       </c>
       <c r="I6" t="n">
-        <v>116141.36567188</v>
+        <v>116061.5373598192</v>
       </c>
       <c r="J6" t="n">
-        <v>53081.4230727735</v>
+        <v>53001.59476071307</v>
       </c>
       <c r="K6" t="n">
-        <v>116141.3656718784</v>
+        <v>116061.5373598192</v>
       </c>
       <c r="L6" t="n">
-        <v>90737.51293511855</v>
+        <v>90693.06262577494</v>
       </c>
       <c r="M6" t="n">
-        <v>-116928.7552319716</v>
+        <v>-116928.7552319733</v>
       </c>
       <c r="N6" t="n">
-        <v>93945.92511705597</v>
+        <v>93945.92511705596</v>
       </c>
       <c r="O6" t="n">
-        <v>93945.92511705593</v>
+        <v>93945.92511705584</v>
       </c>
       <c r="P6" t="n">
-        <v>93945.92511705596</v>
+        <v>93945.92511705602</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="M2" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="N2" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O2" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P2" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="3">
@@ -26771,13 +26771,13 @@
         <v>981.4988339511693</v>
       </c>
       <c r="N3" t="n">
-        <v>981.4988339511692</v>
+        <v>981.4988339511693</v>
       </c>
       <c r="O3" t="n">
         <v>981.4988339511693</v>
       </c>
       <c r="P3" t="n">
-        <v>981.4988339511693</v>
+        <v>981.4988339511692</v>
       </c>
     </row>
     <row r="4">
@@ -26799,13 +26799,13 @@
         <v>1203.153941782003</v>
       </c>
       <c r="F4" t="n">
-        <v>1203.153941782004</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="G4" t="n">
-        <v>1203.153941782004</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="H4" t="n">
-        <v>1203.153941782004</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="I4" t="n">
         <v>1203.153941782003</v>
@@ -26814,16 +26814,16 @@
         <v>1203.153941782003</v>
       </c>
       <c r="K4" t="n">
-        <v>1203.153941782009</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="L4" t="n">
-        <v>1203.153941782009</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="M4" t="n">
-        <v>987.4515955793981</v>
+        <v>987.451595579398</v>
       </c>
       <c r="N4" t="n">
-        <v>987.4515955793977</v>
+        <v>987.451595579398</v>
       </c>
       <c r="O4" t="n">
         <v>987.4515955793979</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="M2" t="n">
-        <v>31.07439721216121</v>
+        <v>31.07439721216135</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>962.1396529043441</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>6.139089236967266e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.437306701733</v>
+        <v>746.437306701739</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>962.1396529043441</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,28 +27421,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>195.8054309472555</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>362.1277178264953</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,28 +27458,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.41449811087765</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>42.63895879252416</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>197.9223079461313</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>66.94669454932891</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>2.461951738815117</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27831,13 +27831,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.0288285387892</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>137.0172282962972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,19 +27941,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>85.29529964142466</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>22.97751176594187</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>142.7256334483485</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.470828512718327e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.014566457044566e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.341039362363517e-11</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.268595683108325e-11</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="C34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="D34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="E34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="F34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="G34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="H34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="I34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="J34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="K34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="L34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="M34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="N34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="O34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="P34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="R34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="S34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="T34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="U34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="V34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="W34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="X34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.73211379737677</v>
+        <v>24.73211379737667</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="C35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="D35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="E35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="F35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="G35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="H35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="I35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="T35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="U35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="V35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="W35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="X35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="C37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="D37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="E37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="F37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="G37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="H37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="I37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="J37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="K37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="L37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="M37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="N37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="O37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="P37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="R37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="S37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="T37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="U37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="V37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="W37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="X37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.80651100953798</v>
+        <v>55.80651100953801</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="K40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="L40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="M40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="R40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="S40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="K43" t="n">
-        <v>55.80651100953691</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="L43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="M43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953742</v>
       </c>
       <c r="P43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="R43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="S43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.80651100953803</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="K46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="L46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="M46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="R46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="S46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
   </sheetData>
@@ -33886,7 +33886,7 @@
         <v>3.945723955582587</v>
       </c>
       <c r="H38" t="n">
-        <v>40.40914546011017</v>
+        <v>40.40914546011018</v>
       </c>
       <c r="I38" t="n">
         <v>152.1175227975978</v>
@@ -33898,19 +33898,19 @@
         <v>501.9108836149389</v>
       </c>
       <c r="L38" t="n">
-        <v>622.6648331205996</v>
+        <v>622.6648331205997</v>
       </c>
       <c r="M38" t="n">
-        <v>692.8346015156914</v>
+        <v>692.8346015156915</v>
       </c>
       <c r="N38" t="n">
-        <v>704.0453897044905</v>
+        <v>704.0453897044906</v>
       </c>
       <c r="O38" t="n">
-        <v>664.8100971211661</v>
+        <v>664.8100971211662</v>
       </c>
       <c r="P38" t="n">
-        <v>567.4000369677209</v>
+        <v>567.400036967721</v>
       </c>
       <c r="Q38" t="n">
         <v>426.0937978084194</v>
@@ -33919,7 +33919,7 @@
         <v>247.8555824248649</v>
       </c>
       <c r="S38" t="n">
-        <v>89.91318463783828</v>
+        <v>89.9131846378383</v>
       </c>
       <c r="T38" t="n">
         <v>17.27240661556278</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.111148435291194</v>
+        <v>2.111148435291195</v>
       </c>
       <c r="H39" t="n">
-        <v>20.38924936189127</v>
+        <v>20.38924936189128</v>
       </c>
       <c r="I39" t="n">
         <v>72.68647025015736</v>
@@ -33977,7 +33977,7 @@
         <v>340.9041751847189</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3877337240815</v>
+        <v>458.3877337240816</v>
       </c>
       <c r="M39" t="n">
         <v>534.9168645033872</v>
@@ -33986,7 +33986,7 @@
         <v>549.0745222119848</v>
       </c>
       <c r="O39" t="n">
-        <v>502.2959174089535</v>
+        <v>502.2959174089536</v>
       </c>
       <c r="P39" t="n">
         <v>403.1367569110001</v>
@@ -33995,7 +33995,7 @@
         <v>269.4862458803286</v>
       </c>
       <c r="R39" t="n">
-        <v>131.0763914472901</v>
+        <v>131.0763914472902</v>
       </c>
       <c r="S39" t="n">
         <v>39.21365624323773</v>
@@ -34062,7 +34062,7 @@
         <v>277.4423671118034</v>
       </c>
       <c r="N40" t="n">
-        <v>270.8454077360662</v>
+        <v>270.8454077360663</v>
       </c>
       <c r="O40" t="n">
         <v>250.1695716438161</v>
@@ -34071,19 +34071,19 @@
         <v>214.063286670268</v>
       </c>
       <c r="Q40" t="n">
-        <v>148.2063239266265</v>
+        <v>148.2063239266266</v>
       </c>
       <c r="R40" t="n">
         <v>79.58185627413904</v>
       </c>
       <c r="S40" t="n">
-        <v>30.84480761777689</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T40" t="n">
-        <v>7.562368064869662</v>
+        <v>7.562368064869663</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09654086891322985</v>
+        <v>0.09654086891322987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.945723955582587</v>
       </c>
       <c r="H44" t="n">
-        <v>40.40914546011018</v>
+        <v>40.40914546011017</v>
       </c>
       <c r="I44" t="n">
         <v>152.1175227975978</v>
@@ -34372,19 +34372,19 @@
         <v>501.9108836149389</v>
       </c>
       <c r="L44" t="n">
-        <v>622.6648331205997</v>
+        <v>622.6648331205996</v>
       </c>
       <c r="M44" t="n">
-        <v>692.8346015156915</v>
+        <v>692.8346015156914</v>
       </c>
       <c r="N44" t="n">
-        <v>704.0453897044906</v>
+        <v>704.0453897044905</v>
       </c>
       <c r="O44" t="n">
-        <v>664.8100971211662</v>
+        <v>664.8100971211661</v>
       </c>
       <c r="P44" t="n">
-        <v>567.400036967721</v>
+        <v>567.4000369677209</v>
       </c>
       <c r="Q44" t="n">
         <v>426.0937978084194</v>
@@ -34393,7 +34393,7 @@
         <v>247.8555824248649</v>
       </c>
       <c r="S44" t="n">
-        <v>89.9131846378383</v>
+        <v>89.91318463783828</v>
       </c>
       <c r="T44" t="n">
         <v>17.27240661556278</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.111148435291195</v>
+        <v>2.111148435291194</v>
       </c>
       <c r="H45" t="n">
-        <v>20.38924936189128</v>
+        <v>20.38924936189127</v>
       </c>
       <c r="I45" t="n">
         <v>72.68647025015736</v>
@@ -34451,7 +34451,7 @@
         <v>340.9041751847189</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3877337240816</v>
+        <v>458.3877337240815</v>
       </c>
       <c r="M45" t="n">
         <v>534.9168645033872</v>
@@ -34460,7 +34460,7 @@
         <v>549.0745222119848</v>
       </c>
       <c r="O45" t="n">
-        <v>502.2959174089536</v>
+        <v>502.2959174089535</v>
       </c>
       <c r="P45" t="n">
         <v>403.1367569110001</v>
@@ -34469,7 +34469,7 @@
         <v>269.4862458803286</v>
       </c>
       <c r="R45" t="n">
-        <v>131.0763914472902</v>
+        <v>131.0763914472901</v>
       </c>
       <c r="S45" t="n">
         <v>39.21365624323773</v>
@@ -34536,7 +34536,7 @@
         <v>277.4423671118034</v>
       </c>
       <c r="N46" t="n">
-        <v>270.8454077360663</v>
+        <v>270.8454077360662</v>
       </c>
       <c r="O46" t="n">
         <v>250.1695716438161</v>
@@ -34545,19 +34545,19 @@
         <v>214.063286670268</v>
       </c>
       <c r="Q46" t="n">
-        <v>148.2063239266266</v>
+        <v>148.2063239266265</v>
       </c>
       <c r="R46" t="n">
         <v>79.58185627413904</v>
       </c>
       <c r="S46" t="n">
-        <v>30.8448076177769</v>
+        <v>30.84480761777689</v>
       </c>
       <c r="T46" t="n">
-        <v>7.562368064869663</v>
+        <v>7.562368064869662</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09654086891322987</v>
+        <v>0.09654086891322985</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>313.2411187492166</v>
+        <v>322.9390992205154</v>
       </c>
       <c r="K11" t="n">
         <v>605.9664451411231</v>
@@ -35416,22 +35416,22 @@
         <v>804.5596327010629</v>
       </c>
       <c r="M11" t="n">
-        <v>462.4883682884188</v>
+        <v>912.0019017812513</v>
       </c>
       <c r="N11" t="n">
-        <v>911.9792505198839</v>
+        <v>474.6323261078997</v>
       </c>
       <c r="O11" t="n">
         <v>815.5120669622248</v>
       </c>
       <c r="P11" t="n">
-        <v>336.1670412124515</v>
+        <v>592.3338621931924</v>
       </c>
       <c r="Q11" t="n">
-        <v>416.1030985938746</v>
+        <v>203.7881079339699</v>
       </c>
       <c r="R11" t="n">
-        <v>97.98646448371522</v>
+        <v>32.27004461073278</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>72.6196033535422</v>
+        <v>142.2414528067455</v>
       </c>
       <c r="K12" t="n">
-        <v>203.0627362103599</v>
+        <v>467.5279732229385</v>
       </c>
       <c r="L12" t="n">
         <v>319.8333539442074</v>
@@ -35501,7 +35501,7 @@
         <v>417.7328101286515</v>
       </c>
       <c r="O12" t="n">
-        <v>693.786759430291</v>
+        <v>359.6996729645091</v>
       </c>
       <c r="P12" t="n">
         <v>269.1623494966699</v>
@@ -35647,25 +35647,25 @@
         <v>322.9390992205154</v>
       </c>
       <c r="K14" t="n">
-        <v>605.9664451411231</v>
+        <v>281.8210325699584</v>
       </c>
       <c r="L14" t="n">
         <v>804.5596327010629</v>
       </c>
       <c r="M14" t="n">
-        <v>568.3386040576237</v>
+        <v>912.0019017812513</v>
       </c>
       <c r="N14" t="n">
-        <v>474.6323261078997</v>
+        <v>911.9792505198839</v>
       </c>
       <c r="O14" t="n">
         <v>815.5120669622248</v>
       </c>
       <c r="P14" t="n">
-        <v>657.9657493839341</v>
+        <v>413.4159304793895</v>
       </c>
       <c r="Q14" t="n">
-        <v>416.1030985938746</v>
+        <v>203.7881079339699</v>
       </c>
       <c r="R14" t="n">
         <v>97.98646448371522</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>72.6196033535422</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K15" t="n">
         <v>203.0627362103599</v>
@@ -35741,7 +35741,7 @@
         <v>359.6996729645091</v>
       </c>
       <c r="P15" t="n">
-        <v>424.0907055212498</v>
+        <v>297.9996701808407</v>
       </c>
       <c r="Q15" t="n">
         <v>339.5817595301562</v>
@@ -35823,7 +35823,7 @@
         <v>211.3418459351615</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.0442806749362</v>
+        <v>62.04428067493218</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>322.9390992205154</v>
+        <v>153.8424840484416</v>
       </c>
       <c r="K17" t="n">
-        <v>605.9664451411231</v>
+        <v>281.8210325699584</v>
       </c>
       <c r="L17" t="n">
         <v>804.5596327010629</v>
       </c>
       <c r="M17" t="n">
-        <v>462.4883682884188</v>
+        <v>912.0019017812513</v>
       </c>
       <c r="N17" t="n">
         <v>911.9792505198839</v>
       </c>
       <c r="O17" t="n">
-        <v>549.7317981924283</v>
+        <v>815.5120669622248</v>
       </c>
       <c r="P17" t="n">
-        <v>657.9657493839341</v>
+        <v>370.1975549915597</v>
       </c>
       <c r="Q17" t="n">
         <v>416.1030985938746</v>
       </c>
       <c r="R17" t="n">
-        <v>32.27004461073278</v>
+        <v>97.98646448371522</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>72.6196033535422</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K18" t="n">
         <v>203.0627362103599</v>
@@ -35975,16 +35975,16 @@
         <v>417.7328101286515</v>
       </c>
       <c r="O18" t="n">
-        <v>406.2425480850012</v>
+        <v>359.6996729645091</v>
       </c>
       <c r="P18" t="n">
-        <v>587.6251181366071</v>
+        <v>269.1623494966699</v>
       </c>
       <c r="Q18" t="n">
-        <v>129.5044717943071</v>
+        <v>337.5005229196806</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30.91855729464704</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>153.8424840484416</v>
       </c>
       <c r="K20" t="n">
-        <v>605.9664451411231</v>
+        <v>281.8210325699584</v>
       </c>
       <c r="L20" t="n">
         <v>804.5596327010629</v>
       </c>
       <c r="M20" t="n">
-        <v>899.9184135220831</v>
+        <v>912.0019017812513</v>
       </c>
       <c r="N20" t="n">
         <v>911.9792505198839</v>
@@ -36136,13 +36136,13 @@
         <v>815.5120669622248</v>
       </c>
       <c r="P20" t="n">
-        <v>336.1670412124515</v>
+        <v>582.5125456514637</v>
       </c>
       <c r="Q20" t="n">
         <v>203.7881079339699</v>
       </c>
       <c r="R20" t="n">
-        <v>32.27004461073278</v>
+        <v>97.98646448371522</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>72.6196033535422</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K21" t="n">
         <v>203.0627362103599</v>
@@ -36212,16 +36212,16 @@
         <v>417.7328101286515</v>
       </c>
       <c r="O21" t="n">
-        <v>406.2425480850012</v>
+        <v>359.6996729645091</v>
       </c>
       <c r="P21" t="n">
-        <v>587.6251181366071</v>
+        <v>269.1623494966699</v>
       </c>
       <c r="Q21" t="n">
-        <v>129.5044717943071</v>
+        <v>337.5005229196801</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>30.91855729464704</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>804.5596327010629</v>
       </c>
       <c r="M23" t="n">
-        <v>462.4883682884188</v>
+        <v>568.3386040576219</v>
       </c>
       <c r="N23" t="n">
-        <v>911.9792505198839</v>
+        <v>474.6323261078997</v>
       </c>
       <c r="O23" t="n">
-        <v>762.0467888523312</v>
+        <v>815.5120669622248</v>
       </c>
       <c r="P23" t="n">
         <v>657.9657493839341</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.7881079339699</v>
+        <v>416.1030985938746</v>
       </c>
       <c r="R23" t="n">
-        <v>32.27004461073278</v>
+        <v>97.98646448371522</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>198.710638693951</v>
+        <v>72.6196033535422</v>
       </c>
       <c r="K24" t="n">
         <v>203.0627362103599</v>
@@ -36446,19 +36446,19 @@
         <v>392.7828305813688</v>
       </c>
       <c r="N24" t="n">
-        <v>417.7328101286515</v>
+        <v>572.661166153231</v>
       </c>
       <c r="O24" t="n">
-        <v>567.6957240898822</v>
+        <v>359.6996729645091</v>
       </c>
       <c r="P24" t="n">
         <v>269.1623494966699</v>
       </c>
       <c r="Q24" t="n">
-        <v>129.5044717943071</v>
+        <v>339.5817595301562</v>
       </c>
       <c r="R24" t="n">
-        <v>30.91855729464704</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>322.9390992205154</v>
       </c>
       <c r="K26" t="n">
-        <v>605.9664451411231</v>
+        <v>424.7863417098797</v>
       </c>
       <c r="L26" t="n">
         <v>804.5596327010629</v>
@@ -36607,16 +36607,16 @@
         <v>911.9792505198839</v>
       </c>
       <c r="O26" t="n">
-        <v>434.7118856994795</v>
+        <v>815.5120669622248</v>
       </c>
       <c r="P26" t="n">
-        <v>470.0706991709706</v>
+        <v>336.1670412124515</v>
       </c>
       <c r="Q26" t="n">
         <v>203.7881079339699</v>
       </c>
       <c r="R26" t="n">
-        <v>97.98646448371522</v>
+        <v>32.27004461073278</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>72.6196033535422</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K27" t="n">
         <v>203.0627362103599</v>
@@ -36683,7 +36683,7 @@
         <v>392.7828305813688</v>
       </c>
       <c r="N27" t="n">
-        <v>782.7384538890803</v>
+        <v>417.7328101286515</v>
       </c>
       <c r="O27" t="n">
         <v>359.6996729645091</v>
@@ -36692,10 +36692,10 @@
         <v>269.1623494966699</v>
       </c>
       <c r="Q27" t="n">
-        <v>129.5044717943071</v>
+        <v>337.5005229196801</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.91855729464704</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>322.9390992205154</v>
       </c>
       <c r="K29" t="n">
-        <v>281.8210325699584</v>
+        <v>605.9664451411231</v>
       </c>
       <c r="L29" t="n">
-        <v>804.5596327010629</v>
+        <v>470.0660117011777</v>
       </c>
       <c r="M29" t="n">
         <v>912.0019017812513</v>
@@ -36844,13 +36844,13 @@
         <v>911.9792505198839</v>
       </c>
       <c r="O29" t="n">
-        <v>815.5120669622248</v>
+        <v>434.7118856994795</v>
       </c>
       <c r="P29" t="n">
-        <v>336.1670412124515</v>
+        <v>657.9657493839341</v>
       </c>
       <c r="Q29" t="n">
-        <v>346.7534170739157</v>
+        <v>416.1030985938746</v>
       </c>
       <c r="R29" t="n">
         <v>32.27004461073278</v>
@@ -36914,7 +36914,7 @@
         <v>203.0627362103599</v>
       </c>
       <c r="L30" t="n">
-        <v>348.6706746283784</v>
+        <v>348.670674628378</v>
       </c>
       <c r="M30" t="n">
         <v>392.7828305813688</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>153.8424840484416</v>
+        <v>322.9390992205154</v>
       </c>
       <c r="K32" t="n">
-        <v>605.9664451411231</v>
+        <v>424.7863417098797</v>
       </c>
       <c r="L32" t="n">
         <v>804.5596327010629</v>
@@ -37078,7 +37078,7 @@
         <v>912.0019017812513</v>
       </c>
       <c r="N32" t="n">
-        <v>687.5807716008336</v>
+        <v>911.9792505198839</v>
       </c>
       <c r="O32" t="n">
         <v>815.5120669622248</v>
@@ -37087,7 +37087,7 @@
         <v>336.1670412124515</v>
       </c>
       <c r="Q32" t="n">
-        <v>416.1030985938746</v>
+        <v>203.7881079339699</v>
       </c>
       <c r="R32" t="n">
         <v>32.27004461073278</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>196.6294020834752</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K33" t="n">
         <v>203.0627362103599</v>
@@ -37154,7 +37154,7 @@
         <v>319.8333539442074</v>
       </c>
       <c r="M33" t="n">
-        <v>392.7828305813688</v>
+        <v>421.6201512655394</v>
       </c>
       <c r="N33" t="n">
         <v>417.7328101286515</v>
@@ -37169,7 +37169,7 @@
         <v>339.5817595301562</v>
       </c>
       <c r="R33" t="n">
-        <v>30.91855729464704</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.50598993706863</v>
+        <v>56.50598993706853</v>
       </c>
       <c r="K34" t="n">
-        <v>208.0946727566732</v>
+        <v>208.0946727566731</v>
       </c>
       <c r="L34" t="n">
         <v>315.4603674255195</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7583578710208</v>
+        <v>341.7583578710207</v>
       </c>
       <c r="N34" t="n">
-        <v>339.7096939126717</v>
+        <v>339.7096939126716</v>
       </c>
       <c r="O34" t="n">
-        <v>299.4868133552326</v>
+        <v>299.4868133552325</v>
       </c>
       <c r="P34" t="n">
-        <v>236.0739597325383</v>
+        <v>236.0739597325382</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.77639447230895</v>
+        <v>86.77639447230885</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>605.9664451411231</v>
       </c>
       <c r="L35" t="n">
-        <v>756.5291116174192</v>
+        <v>437.7273358030412</v>
       </c>
       <c r="M35" t="n">
-        <v>912.0019017812513</v>
+        <v>462.4883682884188</v>
       </c>
       <c r="N35" t="n">
         <v>474.6323261078997</v>
       </c>
       <c r="O35" t="n">
-        <v>434.7118856994795</v>
+        <v>815.5120669622248</v>
       </c>
       <c r="P35" t="n">
-        <v>336.1670412124515</v>
+        <v>657.9657493839341</v>
       </c>
       <c r="Q35" t="n">
         <v>203.7881079339699</v>
       </c>
       <c r="R35" t="n">
-        <v>32.27004461073278</v>
+        <v>97.98646448371522</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.6196033535422</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K36" t="n">
         <v>203.0627362103599</v>
       </c>
       <c r="L36" t="n">
-        <v>684.8389977046364</v>
+        <v>319.8333539442074</v>
       </c>
       <c r="M36" t="n">
         <v>392.7828305813688</v>
@@ -37403,10 +37403,10 @@
         <v>269.1623494966699</v>
       </c>
       <c r="Q36" t="n">
-        <v>129.5044717943071</v>
+        <v>337.5005229196806</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>30.91855729464704</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.58038714922984</v>
+        <v>87.58038714922988</v>
       </c>
       <c r="K37" t="n">
         <v>239.1690699688345</v>
@@ -37470,7 +37470,7 @@
         <v>346.5347646376807</v>
       </c>
       <c r="M37" t="n">
-        <v>372.832755083182</v>
+        <v>372.8327550831821</v>
       </c>
       <c r="N37" t="n">
         <v>370.7840911248329</v>
@@ -37479,7 +37479,7 @@
         <v>330.5612105673938</v>
       </c>
       <c r="P37" t="n">
-        <v>267.1483569446995</v>
+        <v>267.1483569446996</v>
       </c>
       <c r="Q37" t="n">
         <v>117.8507916844702</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>153.8424840484416</v>
+        <v>322.9390992205154</v>
       </c>
       <c r="K38" t="n">
-        <v>281.8210325699583</v>
+        <v>281.8210325699584</v>
       </c>
       <c r="L38" t="n">
-        <v>386.8984181506124</v>
+        <v>386.8984181506125</v>
       </c>
       <c r="M38" t="n">
-        <v>912.0019017812511</v>
+        <v>912.0019017812513</v>
       </c>
       <c r="N38" t="n">
-        <v>474.6323261078996</v>
+        <v>474.6323261078997</v>
       </c>
       <c r="O38" t="n">
-        <v>815.5120669622247</v>
+        <v>434.7118856994795</v>
       </c>
       <c r="P38" t="n">
-        <v>436.8279753277714</v>
+        <v>582.8151215454615</v>
       </c>
       <c r="Q38" t="n">
         <v>416.1030985938746</v>
       </c>
       <c r="R38" t="n">
-        <v>32.27004461073275</v>
+        <v>97.98646448371522</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>72.61960335354217</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K39" t="n">
         <v>203.0627362103599</v>
       </c>
       <c r="L39" t="n">
-        <v>474.7617099687874</v>
+        <v>319.8333539442074</v>
       </c>
       <c r="M39" t="n">
         <v>392.7828305813688</v>
@@ -37637,13 +37637,13 @@
         <v>359.6996729645091</v>
       </c>
       <c r="P39" t="n">
-        <v>269.1623494966698</v>
+        <v>269.1623494966699</v>
       </c>
       <c r="Q39" t="n">
-        <v>339.5817595301562</v>
+        <v>337.5005229196806</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.91855729464704</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,10 +37704,10 @@
         <v>239.1690699688345</v>
       </c>
       <c r="L40" t="n">
-        <v>346.5347646376807</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M40" t="n">
-        <v>372.832755083182</v>
+        <v>372.8327550831821</v>
       </c>
       <c r="N40" t="n">
         <v>370.7840911248329</v>
@@ -37716,7 +37716,7 @@
         <v>330.5612105673938</v>
       </c>
       <c r="P40" t="n">
-        <v>267.1483569446995</v>
+        <v>267.1483569446996</v>
       </c>
       <c r="Q40" t="n">
         <v>117.8507916844702</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>153.8424840484416</v>
+        <v>322.9390992205154</v>
       </c>
       <c r="K41" t="n">
         <v>605.9664451411231</v>
       </c>
       <c r="L41" t="n">
-        <v>804.5596327010629</v>
+        <v>386.8984181506125</v>
       </c>
       <c r="M41" t="n">
         <v>462.4883682884188</v>
@@ -37792,13 +37792,13 @@
         <v>474.6323261078997</v>
       </c>
       <c r="O41" t="n">
-        <v>434.7118856994795</v>
+        <v>484.9293787826745</v>
       </c>
       <c r="P41" t="n">
         <v>657.9657493839341</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.7559922986926</v>
+        <v>416.1030985938746</v>
       </c>
       <c r="R41" t="n">
         <v>97.98646448371522</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>196.629402083475</v>
+        <v>198.710638693951</v>
       </c>
       <c r="K42" t="n">
         <v>203.0627362103599</v>
@@ -37877,7 +37877,7 @@
         <v>269.1623494966699</v>
       </c>
       <c r="Q42" t="n">
-        <v>339.5817595301562</v>
+        <v>337.5005229196806</v>
       </c>
       <c r="R42" t="n">
         <v>30.91855729464704</v>
@@ -37938,7 +37938,7 @@
         <v>87.58038714922989</v>
       </c>
       <c r="K43" t="n">
-        <v>239.1690699688334</v>
+        <v>239.1690699688345</v>
       </c>
       <c r="L43" t="n">
         <v>346.5347646376808</v>
@@ -37950,7 +37950,7 @@
         <v>370.7840911248329</v>
       </c>
       <c r="O43" t="n">
-        <v>330.5612105673939</v>
+        <v>330.5612105673932</v>
       </c>
       <c r="P43" t="n">
         <v>267.1483569446996</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>153.8424840484416</v>
+        <v>322.9390992205153</v>
       </c>
       <c r="K44" t="n">
-        <v>281.8210325699584</v>
+        <v>597.182465133056</v>
       </c>
       <c r="L44" t="n">
-        <v>804.5596327010629</v>
+        <v>386.8984181506124</v>
       </c>
       <c r="M44" t="n">
-        <v>595.0016213461221</v>
+        <v>462.4883682884187</v>
       </c>
       <c r="N44" t="n">
-        <v>474.6323261078997</v>
+        <v>474.6323261078996</v>
       </c>
       <c r="O44" t="n">
-        <v>815.5120669622248</v>
+        <v>815.5120669622247</v>
       </c>
       <c r="P44" t="n">
-        <v>336.1670412124515</v>
+        <v>336.1670412124514</v>
       </c>
       <c r="Q44" t="n">
         <v>416.1030985938746</v>
       </c>
       <c r="R44" t="n">
-        <v>32.27004461073278</v>
+        <v>97.9864644837152</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>203.0627362103599</v>
       </c>
       <c r="L45" t="n">
-        <v>319.8333539442074</v>
+        <v>319.8333539442073</v>
       </c>
       <c r="M45" t="n">
         <v>392.7828305813688</v>
       </c>
       <c r="N45" t="n">
-        <v>446.5701308128225</v>
+        <v>417.7328101286515</v>
       </c>
       <c r="O45" t="n">
         <v>359.6996729645091</v>
       </c>
       <c r="P45" t="n">
-        <v>269.1623494966699</v>
+        <v>269.1623494966698</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.5817595301562</v>
+        <v>337.5005229196806</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.91855729464702</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>239.1690699688345</v>
       </c>
       <c r="L46" t="n">
-        <v>346.5347646376808</v>
+        <v>346.5347646376807</v>
       </c>
       <c r="M46" t="n">
         <v>372.832755083182</v>
